--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2091380.702098113</v>
+        <v>-2092194.149310001</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.34595429</v>
+        <v>2927877.345954287</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.1059717842872</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>289.117288741969</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
-        <v>280.098592786497</v>
+        <v>197.0880191276346</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0125464443796</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4070376922379</v>
+        <v>322.4070376922378</v>
       </c>
       <c r="H11" t="n">
         <v>234.9781829577618</v>
       </c>
       <c r="I11" t="n">
-        <v>28.5611534582933</v>
+        <v>61.3207076824131</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545171</v>
+        <v>84.08218037545166</v>
       </c>
       <c r="T11" t="n">
-        <v>130.7597296842796</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U11" t="n">
-        <v>163.296248452629</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313686</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I12" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310427</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.28834215945767</v>
+        <v>41.28834215945688</v>
       </c>
       <c r="S12" t="n">
         <v>145.9169861849574</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>78.92267750438469</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196317</v>
+        <v>62.54404190196308</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.49179175774253</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592893</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>37.39273137810078</v>
+        <v>77.99174215033074</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366596</v>
+        <v>66.63306124366586</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227662</v>
+        <v>46.49600542227655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.16276991271695</v>
       </c>
       <c r="S13" t="n">
         <v>118.363767619385</v>
       </c>
       <c r="T13" t="n">
-        <v>140.8174128706117</v>
+        <v>140.8174128706116</v>
       </c>
       <c r="U13" t="n">
-        <v>195.3080224141333</v>
+        <v>28.09048855298921</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586099</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W13" t="n">
         <v>194.2977051292231</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9428071250263</v>
+        <v>139.9428071250262</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.817674881094</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864968</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564023</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443795</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>226.7995440766868</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577617</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241304</v>
+        <v>61.3207076824131</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.79351549396648</v>
+        <v>84.08218037545166</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842794</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>163.2962484526289</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351697</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y14" t="n">
         <v>300.6093045313685</v>
@@ -1704,7 +1704,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I15" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310323</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945688</v>
       </c>
       <c r="S15" t="n">
         <v>145.9169861849574</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898417</v>
+        <v>92.72268265898421</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438465</v>
+        <v>78.92267750438469</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196304</v>
+        <v>62.54404190196308</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774249</v>
+        <v>61.49179175774253</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.95871608592884</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033069</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>66.63306124366588</v>
       </c>
       <c r="I16" t="n">
-        <v>46.4960054222765</v>
+        <v>46.49600542227655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271691</v>
+        <v>48.16276991271695</v>
       </c>
       <c r="S16" t="n">
-        <v>55.87428722401686</v>
+        <v>118.363767619385</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8174128706116</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>195.3080224141331</v>
+        <v>195.3080224141332</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586097</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W16" t="n">
-        <v>194.297705129223</v>
+        <v>91.20792754410833</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250261</v>
+        <v>139.9428071250262</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305283</v>
+        <v>212.1874972305282</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9109388449618</v>
+        <v>224.9109388449617</v>
       </c>
       <c r="F17" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4772461807972</v>
+        <v>245.4772461807971</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011044</v>
+        <v>7.152388864010987</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283889</v>
+        <v>53.82993817283881</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118835</v>
+        <v>86.36645694118826</v>
       </c>
       <c r="V17" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9826569909826</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2829152237303</v>
+        <v>212.2829152237291</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I18" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310323</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.28834215945767</v>
+        <v>41.28834215945688</v>
       </c>
       <c r="S18" t="n">
         <v>145.9169861849574</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754363</v>
+        <v>15.79289114754354</v>
       </c>
       <c r="C19" t="n">
-        <v>1.99288599294411</v>
+        <v>1.992885992944025</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890148</v>
+        <v>1.061950638890063</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>179.4810853502009</v>
+        <v>197.3959288546026</v>
       </c>
       <c r="T19" t="n">
-        <v>63.88762135917106</v>
+        <v>63.88762135917097</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3782309026926</v>
+        <v>118.3782309026925</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716922</v>
+        <v>92.20102754716913</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3679136177825</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358559</v>
+        <v>63.01301561358551</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965328</v>
+        <v>53.8878833696532</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305283</v>
+        <v>212.1874972305282</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449618</v>
+        <v>224.9109388449617</v>
       </c>
       <c r="F20" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G20" t="n">
         <v>245.4772461807972</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864011044</v>
+        <v>7.152388864011016</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283889</v>
+        <v>53.82993817283884</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118835</v>
+        <v>86.36645694118829</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909832</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2829152237292</v>
+        <v>212.2829152237291</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I21" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310323</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945688</v>
       </c>
       <c r="S21" t="n">
         <v>145.9169861849574</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754363</v>
+        <v>171.7548438942015</v>
       </c>
       <c r="C22" t="n">
-        <v>1.99288599294411</v>
+        <v>1.992885992944053</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890148</v>
+        <v>1.061950638890091</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794438</v>
+        <v>41.43397610794433</v>
       </c>
       <c r="T22" t="n">
-        <v>63.88762135917106</v>
+        <v>63.887621359171</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3782309026926</v>
+        <v>118.3782309026925</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20102754716922</v>
+        <v>92.20102754716916</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3679136177825</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358559</v>
+        <v>63.01301561358554</v>
       </c>
       <c r="Y22" t="n">
-        <v>209.8498361163111</v>
+        <v>53.88788336965322</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1874972305283</v>
+        <v>212.1874972305282</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9109388449618</v>
+        <v>224.9109388449617</v>
       </c>
       <c r="F23" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G23" t="n">
         <v>245.4772461807972</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864011087</v>
+        <v>7.152388864011016</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283892</v>
+        <v>53.82993817283884</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118837</v>
+        <v>86.36645694118829</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9826569909826</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2829152237292</v>
+        <v>212.2829152237291</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I24" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310323</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945688</v>
       </c>
       <c r="S24" t="n">
         <v>145.9169861849574</v>
       </c>
       <c r="T24" t="n">
-        <v>185.6363186866066</v>
+        <v>185.6363186866062</v>
       </c>
       <c r="U24" t="n">
         <v>216.2908792854683</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.7548438942011</v>
+        <v>171.7548438942015</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944139</v>
+        <v>1.992885992944053</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.061950638890176</v>
+        <v>1.061950638890091</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794441</v>
+        <v>41.43397610794433</v>
       </c>
       <c r="T25" t="n">
-        <v>63.88762135917109</v>
+        <v>63.887621359171</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3782309026926</v>
+        <v>118.3782309026925</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20102754716925</v>
+        <v>92.20102754716916</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3679136177825</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358562</v>
+        <v>63.01301561358554</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88788336965331</v>
+        <v>53.88788336965322</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I26" t="n">
-        <v>47.8186887650086</v>
+        <v>47.81868876500863</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804714</v>
+        <v>70.58016145804717</v>
       </c>
       <c r="T26" t="n">
         <v>117.257710766875</v>
@@ -2652,7 +2652,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I27" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310323</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945688</v>
       </c>
       <c r="S27" t="n">
         <v>145.9169861849574</v>
@@ -2731,7 +2731,7 @@
         <v>53.13104232626139</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487205</v>
+        <v>32.99398650487206</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>104.8617487019805</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U28" t="n">
         <v>181.8060034967287</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.6039528668827</v>
+        <v>287.6039528668826</v>
       </c>
       <c r="C29" t="n">
-        <v>275.6152698245644</v>
+        <v>275.6152698245643</v>
       </c>
       <c r="D29" t="n">
-        <v>266.5965738690924</v>
+        <v>266.5965738690923</v>
       </c>
       <c r="E29" t="n">
-        <v>288.3387114389979</v>
+        <v>288.3387114389978</v>
       </c>
       <c r="F29" t="n">
-        <v>307.5105275269751</v>
+        <v>307.510527526975</v>
       </c>
       <c r="G29" t="n">
         <v>308.9050187748333</v>
       </c>
       <c r="H29" t="n">
-        <v>221.4761640403573</v>
+        <v>221.4761640403572</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500862</v>
+        <v>47.81868876500856</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804712</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7942295352245</v>
+        <v>149.7942295352244</v>
       </c>
       <c r="V29" t="n">
-        <v>231.1103301070618</v>
+        <v>231.1103301070617</v>
       </c>
       <c r="W29" t="n">
-        <v>256.4104295850187</v>
+        <v>256.4104295850186</v>
       </c>
       <c r="X29" t="n">
-        <v>275.7106878177653</v>
+        <v>275.7106878177652</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.1072856139641</v>
+        <v>287.107285613964</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I30" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310322</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945687</v>
       </c>
       <c r="S30" t="n">
         <v>145.9169861849574</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157974</v>
+        <v>79.22066374157968</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698022</v>
+        <v>65.42065858698017</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455861</v>
+        <v>49.04202298455856</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033806</v>
+        <v>47.98977284033801</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852437</v>
+        <v>48.45669716852431</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292627</v>
+        <v>64.48972323292621</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626141</v>
+        <v>53.13104232626134</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487207</v>
+        <v>32.99398650487201</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531248</v>
+        <v>34.66075099531242</v>
       </c>
       <c r="S31" t="n">
-        <v>104.8617487019805</v>
+        <v>104.8617487019804</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532072</v>
+        <v>127.3153939532071</v>
       </c>
       <c r="U31" t="n">
-        <v>181.8060034967287</v>
+        <v>181.8060034967286</v>
       </c>
       <c r="V31" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W31" t="n">
-        <v>180.7956862118186</v>
+        <v>180.7956862118185</v>
       </c>
       <c r="X31" t="n">
         <v>126.4407882076217</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.3156559636894</v>
+        <v>117.3156559636893</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.6039528668826</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245643</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D32" t="n">
-        <v>266.5965738690923</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E32" t="n">
-        <v>288.3387114389978</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F32" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G32" t="n">
         <v>308.9050187748333</v>
       </c>
       <c r="H32" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500855</v>
+        <v>47.81868876500864</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58016145804709</v>
+        <v>70.58016145804719</v>
       </c>
       <c r="T32" t="n">
-        <v>117.2577107668749</v>
+        <v>117.257710766875</v>
       </c>
       <c r="U32" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V32" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W32" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.107285613964</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I33" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310323</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945688</v>
       </c>
       <c r="S33" t="n">
         <v>145.9169861849574</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157967</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698015</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D34" t="n">
-        <v>49.04202298455854</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033799</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F34" t="n">
-        <v>48.4566971685243</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G34" t="n">
-        <v>64.4897232329262</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626132</v>
+        <v>53.13104232626141</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487199</v>
+        <v>32.99398650487207</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.6607509953124</v>
+        <v>34.66075099531248</v>
       </c>
       <c r="S34" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T34" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U34" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V34" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W34" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4407882076216</v>
+        <v>126.4407882076217</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.3156559636893</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>237.5163481499651</v>
       </c>
       <c r="C35" t="n">
-        <v>225.5276651076468</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D35" t="n">
         <v>216.5089691521748</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2511067220803</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4229228100575</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G35" t="n">
-        <v>258.8174140579157</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3885593234397</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112956</v>
+        <v>20.49255674112965</v>
       </c>
       <c r="T35" t="n">
-        <v>67.17010604995741</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830686</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V35" t="n">
         <v>181.0227253901442</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3228248681011</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X35" t="n">
-        <v>225.6230831008477</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y35" t="n">
         <v>237.0196808970465</v>
@@ -3363,7 +3363,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I36" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310323</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945688</v>
       </c>
       <c r="S36" t="n">
         <v>145.9169861849574</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466215</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C37" t="n">
-        <v>15.33305387006263</v>
+        <v>15.33305387006268</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600866</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H37" t="n">
-        <v>4.645430471071134</v>
+        <v>22.56027397547172</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.7741439850629</v>
+        <v>54.77414398506296</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628958</v>
+        <v>77.22778923628964</v>
       </c>
       <c r="U37" t="n">
         <v>131.7183987798111</v>
       </c>
       <c r="V37" t="n">
-        <v>105.5411954242877</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W37" t="n">
-        <v>130.708081494901</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X37" t="n">
-        <v>76.35318349070411</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.2280512467718</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>237.5163481499651</v>
       </c>
       <c r="C38" t="n">
-        <v>225.5276651076468</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D38" t="n">
         <v>216.5089691521748</v>
       </c>
       <c r="E38" t="n">
-        <v>238.2511067220803</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F38" t="n">
-        <v>257.4229228100575</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G38" t="n">
-        <v>258.8174140579157</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H38" t="n">
-        <v>171.3885593234397</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112956</v>
+        <v>20.49255674112965</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995741</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830686</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V38" t="n">
         <v>181.0227253901442</v>
       </c>
       <c r="W38" t="n">
-        <v>206.3228248681011</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X38" t="n">
-        <v>225.6230831008477</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y38" t="n">
         <v>237.0196808970465</v>
@@ -3600,7 +3600,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I39" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310323</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945688</v>
       </c>
       <c r="S39" t="n">
         <v>145.9169861849574</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466215</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006263</v>
+        <v>15.33305387006268</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600866</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H40" t="n">
-        <v>3.0434376093438</v>
+        <v>3.043437609343859</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>19.51683636612789</v>
       </c>
       <c r="S40" t="n">
-        <v>74.29098035119172</v>
+        <v>54.77414398506296</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628958</v>
+        <v>77.22778923628964</v>
       </c>
       <c r="U40" t="n">
         <v>131.7183987798111</v>
       </c>
       <c r="V40" t="n">
-        <v>105.5411954242877</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W40" t="n">
-        <v>130.708081494901</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070411</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.2280512467718</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.5163481499651</v>
+        <v>237.516348149965</v>
       </c>
       <c r="C41" t="n">
         <v>225.5276651076468</v>
@@ -3791,10 +3791,10 @@
         <v>20.49255674112956</v>
       </c>
       <c r="T41" t="n">
-        <v>67.17010604995741</v>
+        <v>67.17010604995738</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830686</v>
+        <v>99.70662481830684</v>
       </c>
       <c r="V41" t="n">
         <v>181.0227253901442</v>
@@ -3806,7 +3806,7 @@
         <v>225.6230831008477</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.0196808970465</v>
+        <v>237.0196808970464</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I42" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310323</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945688</v>
       </c>
       <c r="S42" t="n">
         <v>145.9169861849574</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466215</v>
+        <v>29.13305902466212</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006263</v>
+        <v>15.3330538700626</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600866</v>
+        <v>33.91895488213737</v>
       </c>
       <c r="H43" t="n">
-        <v>22.56027397547238</v>
+        <v>3.043437609343774</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.7741439850629</v>
+        <v>54.77414398506288</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628958</v>
+        <v>77.22778923628955</v>
       </c>
       <c r="U43" t="n">
         <v>131.7183987798111</v>
@@ -3961,10 +3961,10 @@
         <v>130.708081494901</v>
       </c>
       <c r="X43" t="n">
-        <v>76.35318349070411</v>
+        <v>76.35318349070408</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.2280512467718</v>
+        <v>67.22805124677177</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C44" t="n">
-        <v>225.5276651076469</v>
+        <v>225.5276651076468</v>
       </c>
       <c r="D44" t="n">
-        <v>216.5089691521749</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E44" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220803</v>
       </c>
       <c r="F44" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100575</v>
       </c>
       <c r="G44" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579157</v>
       </c>
       <c r="H44" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234397</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112966</v>
+        <v>20.49255674112959</v>
       </c>
       <c r="T44" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995741</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830686</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901442</v>
       </c>
       <c r="W44" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681011</v>
       </c>
       <c r="X44" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008477</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I45" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310323</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945688</v>
       </c>
       <c r="S45" t="n">
         <v>145.9169861849574</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466223</v>
+        <v>29.13305902466215</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006271</v>
+        <v>15.33305387006263</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600866</v>
       </c>
       <c r="H46" t="n">
-        <v>22.5602739754717</v>
+        <v>3.043437609343802</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506298</v>
+        <v>74.29098035119115</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628967</v>
+        <v>77.22778923628958</v>
       </c>
       <c r="U46" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V46" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242877</v>
       </c>
       <c r="W46" t="n">
-        <v>130.7080814949011</v>
+        <v>130.708081494901</v>
       </c>
       <c r="X46" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070411</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677188</v>
+        <v>67.2280512467718</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1541.714977095134</v>
+        <v>1471.590900809558</v>
       </c>
       <c r="C11" t="n">
-        <v>1249.677311699206</v>
+        <v>1179.55323541363</v>
       </c>
       <c r="D11" t="n">
-        <v>966.7494401976935</v>
+        <v>980.4744282139989</v>
       </c>
       <c r="E11" t="n">
-        <v>966.7494401976935</v>
+        <v>675.5848015913703</v>
       </c>
       <c r="F11" t="n">
-        <v>642.4943427791283</v>
+        <v>675.5848015913703</v>
       </c>
       <c r="G11" t="n">
-        <v>316.8306683425243</v>
+        <v>349.9211271547664</v>
       </c>
       <c r="H11" t="n">
-        <v>79.47896838518916</v>
+        <v>112.5694271974314</v>
       </c>
       <c r="I11" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J11" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K11" t="n">
-        <v>475.8880155938953</v>
+        <v>358.6187566067424</v>
       </c>
       <c r="L11" t="n">
-        <v>907.9461548436961</v>
+        <v>790.6768958565431</v>
       </c>
       <c r="M11" t="n">
-        <v>1394.843741810911</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N11" t="n">
-        <v>1868.349012376772</v>
+        <v>1751.079753389618</v>
       </c>
       <c r="O11" t="n">
-        <v>2263.223623021737</v>
+        <v>2145.954364034584</v>
       </c>
       <c r="P11" t="n">
-        <v>2531.465921365857</v>
+        <v>2450.813248612011</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.465921365857</v>
@@ -5072,19 +5072,19 @@
         <v>2314.453891002492</v>
       </c>
       <c r="U11" t="n">
-        <v>2149.508185494786</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="V11" t="n">
-        <v>2149.508185494786</v>
+        <v>2067.370710169698</v>
       </c>
       <c r="W11" t="n">
-        <v>2149.508185494786</v>
+        <v>2067.370710169698</v>
       </c>
       <c r="X11" t="n">
-        <v>2149.508185494786</v>
+        <v>1775.236662962456</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.862423341889</v>
+        <v>1471.590900809558</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.813312877967</v>
+        <v>916.813312877968</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189227</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091348</v>
       </c>
       <c r="E12" t="n">
-        <v>469.242993166005</v>
+        <v>469.242993166006</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158804</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881647</v>
       </c>
       <c r="H12" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738871</v>
       </c>
       <c r="I12" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J12" t="n">
-        <v>50.62931842731714</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K12" t="n">
-        <v>326.203808759672</v>
+        <v>413.4208828411995</v>
       </c>
       <c r="L12" t="n">
-        <v>753.9911953756168</v>
+        <v>841.2082694571441</v>
       </c>
       <c r="M12" t="n">
-        <v>935.0807557888481</v>
+        <v>1398.552487108882</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.571119459616</v>
+        <v>1984.042850779651</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.672185824252</v>
+        <v>2444.143917144286</v>
       </c>
       <c r="P12" t="n">
-        <v>2337.264736621381</v>
+        <v>2444.143917144286</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T12" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V12" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>328.4319002777573</v>
+        <v>448.6892375994012</v>
       </c>
       <c r="C13" t="n">
-        <v>328.4319002777573</v>
+        <v>368.9693613323463</v>
       </c>
       <c r="D13" t="n">
-        <v>265.2561003767841</v>
+        <v>305.7935614313735</v>
       </c>
       <c r="E13" t="n">
-        <v>265.2561003767841</v>
+        <v>243.6806404639567</v>
       </c>
       <c r="F13" t="n">
-        <v>202.6715386738256</v>
+        <v>243.6806404639567</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9011029383703</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="H13" t="n">
-        <v>97.5949804700208</v>
+        <v>97.59498047002076</v>
       </c>
       <c r="I13" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413164</v>
+        <v>96.7900541541317</v>
       </c>
       <c r="K13" t="n">
-        <v>246.299051995864</v>
+        <v>246.2990519958641</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405358</v>
+        <v>470.5847128405359</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447743</v>
+        <v>714.1904553447744</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068808</v>
+        <v>957.3332466068811</v>
       </c>
       <c r="O13" t="n">
         <v>1177.722352077497</v>
@@ -5218,31 +5218,31 @@
         <v>1357.735393016881</v>
       </c>
       <c r="Q13" t="n">
-        <v>1428.106858962689</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="R13" t="n">
-        <v>1428.106858962689</v>
+        <v>1379.457596424592</v>
       </c>
       <c r="S13" t="n">
-        <v>1308.547497730987</v>
+        <v>1259.89823519289</v>
       </c>
       <c r="T13" t="n">
-        <v>1166.307686750572</v>
+        <v>1117.658424212474</v>
       </c>
       <c r="U13" t="n">
-        <v>969.0268560292252</v>
+        <v>1089.284193350869</v>
       </c>
       <c r="V13" t="n">
-        <v>798.1876448589121</v>
+        <v>918.4449821805559</v>
       </c>
       <c r="W13" t="n">
-        <v>601.9273366475757</v>
+        <v>722.1846739692195</v>
       </c>
       <c r="X13" t="n">
-        <v>460.5709658142158</v>
+        <v>580.8283031358596</v>
       </c>
       <c r="Y13" t="n">
-        <v>328.4319002777573</v>
+        <v>448.6892375994012</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1261.993722697473</v>
+        <v>861.9394472185888</v>
       </c>
       <c r="C14" t="n">
-        <v>1261.993722697473</v>
+        <v>861.9394472185888</v>
       </c>
       <c r="D14" t="n">
-        <v>979.0658511959606</v>
+        <v>579.0115757170764</v>
       </c>
       <c r="E14" t="n">
-        <v>674.176224573332</v>
+        <v>579.0115757170764</v>
       </c>
       <c r="F14" t="n">
-        <v>349.9211271547669</v>
+        <v>579.0115757170764</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9211271547669</v>
+        <v>349.9211271547665</v>
       </c>
       <c r="H14" t="n">
-        <v>112.5694271974313</v>
+        <v>112.5694271974314</v>
       </c>
       <c r="I14" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J14" t="n">
-        <v>50.62931842731714</v>
+        <v>167.8985774144698</v>
       </c>
       <c r="K14" t="n">
-        <v>287.2391769275717</v>
+        <v>475.8880155938951</v>
       </c>
       <c r="L14" t="n">
-        <v>719.2973161773725</v>
+        <v>719.2973161773731</v>
       </c>
       <c r="M14" t="n">
         <v>1206.194903144587</v>
@@ -5303,25 +5303,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S14" t="n">
-        <v>2458.947218846698</v>
+        <v>2446.534426037118</v>
       </c>
       <c r="T14" t="n">
-        <v>2326.866683812073</v>
+        <v>2446.534426037118</v>
       </c>
       <c r="U14" t="n">
-        <v>2161.920978304367</v>
+        <v>2281.588720529412</v>
       </c>
       <c r="V14" t="n">
-        <v>2161.920978304367</v>
+        <v>2034.505539696618</v>
       </c>
       <c r="W14" t="n">
-        <v>2161.920978304367</v>
+        <v>1761.866702825483</v>
       </c>
       <c r="X14" t="n">
-        <v>1869.786931097125</v>
+        <v>1469.732655618241</v>
       </c>
       <c r="Y14" t="n">
-        <v>1566.141168944227</v>
+        <v>1166.086893465343</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>206.1118778881637</v>
       </c>
       <c r="H15" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738861</v>
       </c>
       <c r="I15" t="n">
         <v>50.62931842731714</v>
@@ -5358,19 +5358,19 @@
         <v>137.8463925088447</v>
       </c>
       <c r="K15" t="n">
-        <v>413.4208828411996</v>
+        <v>413.4208828411995</v>
       </c>
       <c r="L15" t="n">
-        <v>841.2082694571443</v>
+        <v>841.2082694571441</v>
       </c>
       <c r="M15" t="n">
-        <v>1398.552487108882</v>
+        <v>935.080755788848</v>
       </c>
       <c r="N15" t="n">
         <v>1520.571119459616</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.672185824251</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P15" t="n">
         <v>2337.264736621381</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>381.3831151310521</v>
+        <v>432.4942617767735</v>
       </c>
       <c r="C16" t="n">
-        <v>301.6632388639969</v>
+        <v>352.7743855097182</v>
       </c>
       <c r="D16" t="n">
-        <v>238.4874389630242</v>
+        <v>289.5985856087454</v>
       </c>
       <c r="E16" t="n">
-        <v>176.3745179956075</v>
+        <v>227.4856646413287</v>
       </c>
       <c r="F16" t="n">
-        <v>176.3745179956075</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="G16" t="n">
-        <v>97.59498047002067</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="H16" t="n">
-        <v>97.59498047002067</v>
+        <v>97.59498047002072</v>
       </c>
       <c r="I16" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413172</v>
+        <v>96.7900541541317</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958642</v>
+        <v>246.2990519958641</v>
       </c>
       <c r="L16" t="n">
-        <v>470.584712840536</v>
+        <v>470.5847128405359</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447749</v>
+        <v>714.1904553447745</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068816</v>
+        <v>957.3332466068812</v>
       </c>
       <c r="O16" t="n">
-        <v>1177.722352077498</v>
+        <v>1177.722352077497</v>
       </c>
       <c r="P16" t="n">
-        <v>1357.735393016882</v>
+        <v>1357.735393016881</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.106858962691</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="R16" t="n">
         <v>1379.457596424592</v>
       </c>
       <c r="S16" t="n">
-        <v>1323.018922460939</v>
+        <v>1259.89823519289</v>
       </c>
       <c r="T16" t="n">
-        <v>1180.779111480523</v>
+        <v>1259.89823519289</v>
       </c>
       <c r="U16" t="n">
-        <v>983.4982807591764</v>
+        <v>1062.617404471544</v>
       </c>
       <c r="V16" t="n">
-        <v>812.6590695888635</v>
+        <v>891.7781933012307</v>
       </c>
       <c r="W16" t="n">
-        <v>616.3987613775272</v>
+        <v>799.6489735597071</v>
       </c>
       <c r="X16" t="n">
-        <v>475.0423905441675</v>
+        <v>658.2926027263474</v>
       </c>
       <c r="Y16" t="n">
-        <v>475.0423905441675</v>
+        <v>526.1535371898889</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121849</v>
+        <v>931.9619764121855</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021224</v>
+        <v>704.7792099021232</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961235</v>
+        <v>458.2309725961243</v>
       </c>
       <c r="G17" t="n">
-        <v>210.274158272086</v>
+        <v>210.2741582720859</v>
       </c>
       <c r="H17" t="n">
         <v>50.62931842731714</v>
@@ -5513,22 +5513,22 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J17" t="n">
-        <v>167.8985774144699</v>
+        <v>167.8985774144698</v>
       </c>
       <c r="K17" t="n">
-        <v>475.8880155938953</v>
+        <v>475.8880155938951</v>
       </c>
       <c r="L17" t="n">
-        <v>719.2973161773725</v>
+        <v>907.9461548436959</v>
       </c>
       <c r="M17" t="n">
-        <v>1206.194903144587</v>
+        <v>1394.84374181091</v>
       </c>
       <c r="N17" t="n">
-        <v>1679.700173710448</v>
+        <v>1868.349012376771</v>
       </c>
       <c r="O17" t="n">
-        <v>2074.574784355414</v>
+        <v>2263.223623021736</v>
       </c>
       <c r="P17" t="n">
         <v>2379.433668932841</v>
@@ -5555,7 +5555,7 @@
         <v>2018.320468353689</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.893281259012</v>
+        <v>1803.893281259013</v>
       </c>
       <c r="Y17" t="n">
         <v>1577.954379218681</v>
@@ -5586,7 +5586,7 @@
         <v>206.1118778881637</v>
       </c>
       <c r="H18" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738861</v>
       </c>
       <c r="I18" t="n">
         <v>50.62931842731714</v>
@@ -5595,25 +5595,25 @@
         <v>137.8463925088447</v>
       </c>
       <c r="K18" t="n">
-        <v>413.4208828411996</v>
+        <v>413.4208828411995</v>
       </c>
       <c r="L18" t="n">
-        <v>841.2082694571443</v>
+        <v>841.2082694571441</v>
       </c>
       <c r="M18" t="n">
         <v>1398.552487108882</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.571119459617</v>
+        <v>1877.163670256746</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.672185824252</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="P18" t="n">
         <v>2337.264736621381</v>
       </c>
       <c r="Q18" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R18" t="n">
         <v>2489.760525245193</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.71501199482649</v>
+        <v>53.71501199482632</v>
       </c>
       <c r="C19" t="n">
-        <v>51.70199584033749</v>
+        <v>51.7019958403374</v>
       </c>
       <c r="D19" t="n">
-        <v>51.70199584033749</v>
+        <v>51.7019958403374</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70199584033749</v>
+        <v>51.7019958403374</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70199584033749</v>
+        <v>51.7019958403374</v>
       </c>
       <c r="G19" t="n">
         <v>50.62931842731714</v>
@@ -5674,49 +5674,49 @@
         <v>50.62931842731714</v>
       </c>
       <c r="K19" t="n">
-        <v>112.0311552538833</v>
+        <v>112.0311552538832</v>
       </c>
       <c r="L19" t="n">
-        <v>248.2096550833888</v>
+        <v>248.2096550833887</v>
       </c>
       <c r="M19" t="n">
-        <v>403.7082365724611</v>
+        <v>403.7082365724609</v>
       </c>
       <c r="N19" t="n">
-        <v>558.7438668194014</v>
+        <v>558.7438668194013</v>
       </c>
       <c r="O19" t="n">
-        <v>691.0258112748513</v>
+        <v>691.0258112748511</v>
       </c>
       <c r="P19" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990686</v>
       </c>
       <c r="Q19" t="n">
-        <v>764.8358896794716</v>
+        <v>782.9316911990686</v>
       </c>
       <c r="R19" t="n">
-        <v>764.8358896794716</v>
+        <v>782.9316911990686</v>
       </c>
       <c r="S19" t="n">
-        <v>583.5418640732081</v>
+        <v>583.5418640732074</v>
       </c>
       <c r="T19" t="n">
-        <v>519.0089132053586</v>
+        <v>519.008913205358</v>
       </c>
       <c r="U19" t="n">
-        <v>399.4349425965782</v>
+        <v>399.4349425965777</v>
       </c>
       <c r="V19" t="n">
-        <v>306.3025915388315</v>
+        <v>306.3025915388311</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7491434400613</v>
+        <v>187.7491434400609</v>
       </c>
       <c r="X19" t="n">
-        <v>124.0996327192678</v>
+        <v>124.0996327192675</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.6674272953756</v>
+        <v>69.66742729537535</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.513793084493</v>
+        <v>1351.513793084494</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.182987801131</v>
+        <v>1137.182987801132</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121853</v>
+        <v>931.9619764121863</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021228</v>
+        <v>704.7792099021237</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961238</v>
+        <v>458.2309725961247</v>
       </c>
       <c r="G20" t="n">
         <v>210.274158272086</v>
@@ -5750,25 +5750,25 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J20" t="n">
-        <v>50.62931842731714</v>
+        <v>131.2819911811629</v>
       </c>
       <c r="K20" t="n">
-        <v>358.6187566067425</v>
+        <v>439.2714293605882</v>
       </c>
       <c r="L20" t="n">
-        <v>790.6768958565433</v>
+        <v>871.3295686103889</v>
       </c>
       <c r="M20" t="n">
-        <v>1277.574482823758</v>
+        <v>1358.227155577603</v>
       </c>
       <c r="N20" t="n">
-        <v>1751.079753389619</v>
+        <v>1831.732426143464</v>
       </c>
       <c r="O20" t="n">
-        <v>2145.954364034585</v>
+        <v>2226.607036788429</v>
       </c>
       <c r="P20" t="n">
-        <v>2450.813248612012</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.465921365857</v>
@@ -5795,7 +5795,7 @@
         <v>1803.893281259013</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.954379218681</v>
+        <v>1577.954379218682</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8133128779672</v>
+        <v>916.8133128779667</v>
       </c>
       <c r="C21" t="n">
-        <v>755.109640118922</v>
+        <v>755.1096401189216</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091342</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2429931660054</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158797</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1118778881641</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H21" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738861</v>
       </c>
       <c r="I21" t="n">
         <v>50.62931842731714</v>
@@ -5832,22 +5832,22 @@
         <v>137.8463925088447</v>
       </c>
       <c r="K21" t="n">
-        <v>413.4208828411996</v>
+        <v>413.4208828411995</v>
       </c>
       <c r="L21" t="n">
-        <v>841.2082694571443</v>
+        <v>837.8376045017463</v>
       </c>
       <c r="M21" t="n">
-        <v>1398.552487108882</v>
+        <v>1395.181822153485</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.571119459617</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="O21" t="n">
         <v>1980.672185824252</v>
       </c>
       <c r="P21" t="n">
-        <v>2337.264736621381</v>
+        <v>2337.264736621382</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.465921365857</v>
@@ -5862,13 +5862,13 @@
         <v>2154.858197092098</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V21" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X21" t="n">
         <v>1268.754082009649</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.71501199482649</v>
+        <v>53.71501199482638</v>
       </c>
       <c r="C22" t="n">
-        <v>51.70199584033749</v>
+        <v>51.70199584033743</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70199584033749</v>
+        <v>51.70199584033743</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70199584033749</v>
+        <v>51.70199584033743</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033749</v>
+        <v>51.70199584033743</v>
       </c>
       <c r="G22" t="n">
         <v>50.62931842731714</v>
@@ -5911,49 +5911,49 @@
         <v>50.62931842731714</v>
       </c>
       <c r="K22" t="n">
-        <v>112.0311552538833</v>
+        <v>112.0311552538832</v>
       </c>
       <c r="L22" t="n">
-        <v>248.2096550833888</v>
+        <v>248.2096550833887</v>
       </c>
       <c r="M22" t="n">
-        <v>403.7082365724611</v>
+        <v>403.7082365724609</v>
       </c>
       <c r="N22" t="n">
-        <v>558.7438668194014</v>
+        <v>558.7438668194013</v>
       </c>
       <c r="O22" t="n">
-        <v>691.0258112748513</v>
+        <v>691.0258112748511</v>
       </c>
       <c r="P22" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990686</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990686</v>
       </c>
       <c r="R22" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990686</v>
       </c>
       <c r="S22" t="n">
-        <v>741.0791900799333</v>
+        <v>741.0791900799329</v>
       </c>
       <c r="T22" t="n">
-        <v>676.5462392120837</v>
+        <v>676.5462392120834</v>
       </c>
       <c r="U22" t="n">
-        <v>556.9722686033033</v>
+        <v>556.9722686033031</v>
       </c>
       <c r="V22" t="n">
-        <v>463.8399175455566</v>
+        <v>463.8399175455564</v>
       </c>
       <c r="W22" t="n">
-        <v>345.2864694467864</v>
+        <v>345.2864694467863</v>
       </c>
       <c r="X22" t="n">
-        <v>281.6369587259929</v>
+        <v>281.6369587259928</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.6674272953756</v>
+        <v>227.2047533021007</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.513793084493</v>
+        <v>1351.513793084492</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.182987801131</v>
+        <v>1137.18298780113</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121853</v>
+        <v>931.9619764121849</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021228</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F23" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2741582720861</v>
+        <v>210.2741582720859</v>
       </c>
       <c r="H23" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I23" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J23" t="n">
-        <v>167.8985774144699</v>
+        <v>167.8985774144698</v>
       </c>
       <c r="K23" t="n">
-        <v>475.8880155938953</v>
+        <v>475.8880155938951</v>
       </c>
       <c r="L23" t="n">
-        <v>907.9461548436961</v>
+        <v>907.9461548436958</v>
       </c>
       <c r="M23" t="n">
-        <v>1394.843741810911</v>
+        <v>1394.84374181091</v>
       </c>
       <c r="N23" t="n">
-        <v>1868.349012376772</v>
+        <v>1868.349012376771</v>
       </c>
       <c r="O23" t="n">
-        <v>2263.223623021737</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P23" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.43366893284</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149685</v>
+        <v>2524.241286149683</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U23" t="n">
         <v>2382.628765832485</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112256</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y23" t="n">
         <v>1577.954379218681</v>
@@ -6051,7 +6051,7 @@
         <v>616.2710031091337</v>
       </c>
       <c r="E24" t="n">
-        <v>469.242993166005</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F24" t="n">
         <v>334.5491951158793</v>
@@ -6063,19 +6063,19 @@
         <v>108.986232773886</v>
       </c>
       <c r="I24" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J24" t="n">
         <v>137.8463925088447</v>
       </c>
       <c r="K24" t="n">
-        <v>413.4208828411996</v>
+        <v>413.4208828411995</v>
       </c>
       <c r="L24" t="n">
-        <v>841.2082694571443</v>
+        <v>841.2082694571441</v>
       </c>
       <c r="M24" t="n">
-        <v>1398.552487108882</v>
+        <v>935.0807557888476</v>
       </c>
       <c r="N24" t="n">
         <v>1520.571119459616</v>
@@ -6090,7 +6090,7 @@
         <v>2531.465921365856</v>
       </c>
       <c r="R24" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245192</v>
       </c>
       <c r="S24" t="n">
         <v>2342.369630108872</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.71501199482655</v>
+        <v>53.71501199482636</v>
       </c>
       <c r="C25" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033741</v>
       </c>
       <c r="D25" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033741</v>
       </c>
       <c r="E25" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033741</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033741</v>
       </c>
       <c r="G25" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I25" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J25" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K25" t="n">
-        <v>112.0311552538833</v>
+        <v>112.0311552538832</v>
       </c>
       <c r="L25" t="n">
-        <v>248.2096550833888</v>
+        <v>248.2096550833887</v>
       </c>
       <c r="M25" t="n">
-        <v>403.7082365724611</v>
+        <v>403.7082365724609</v>
       </c>
       <c r="N25" t="n">
-        <v>558.7438668194014</v>
+        <v>558.7438668194013</v>
       </c>
       <c r="O25" t="n">
-        <v>691.0258112748513</v>
+        <v>691.0258112748511</v>
       </c>
       <c r="P25" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990686</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990686</v>
       </c>
       <c r="R25" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990686</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799331</v>
+        <v>741.0791900799329</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120836</v>
+        <v>676.5462392120834</v>
       </c>
       <c r="U25" t="n">
-        <v>556.9722686033032</v>
+        <v>556.9722686033031</v>
       </c>
       <c r="V25" t="n">
         <v>463.8399175455564</v>
       </c>
       <c r="W25" t="n">
-        <v>345.2864694467862</v>
+        <v>345.2864694467863</v>
       </c>
       <c r="X25" t="n">
-        <v>281.6369587259927</v>
+        <v>281.6369587259928</v>
       </c>
       <c r="Y25" t="n">
-        <v>227.2047533021004</v>
+        <v>227.2047533021007</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476239</v>
+        <v>1803.517264476238</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027184</v>
+        <v>1525.118002027183</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.828533472545</v>
+        <v>1255.828533472544</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5773097967895</v>
+        <v>964.5773097967885</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250975</v>
+        <v>653.9606153250966</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353669</v>
+        <v>341.9353438353659</v>
       </c>
       <c r="H26" t="n">
-        <v>118.2220468249039</v>
+        <v>118.222046824904</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J26" t="n">
-        <v>288.6637597322124</v>
+        <v>288.6637597322123</v>
       </c>
       <c r="K26" t="n">
-        <v>596.8002826177383</v>
+        <v>698.1273576550344</v>
       </c>
       <c r="L26" t="n">
-        <v>1130.332581610936</v>
+        <v>1231.659656648232</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.704328321547</v>
+        <v>1820.031403358843</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.683758630805</v>
+        <v>2395.010833668101</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019167</v>
+        <v>2891.359604056463</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.365573339991</v>
+        <v>3297.692648377287</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516404</v>
+        <v>3449.871985516403</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083146</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.72395770128</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613527</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052696</v>
+        <v>3154.974523052695</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.529745166775</v>
+        <v>2921.529745166774</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242512</v>
       </c>
       <c r="X26" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y26" t="n">
-        <v>2094.02630777612</v>
+        <v>2094.026307776119</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J27" t="n">
         <v>157.1374150831905</v>
       </c>
       <c r="K27" t="n">
-        <v>157.1374150831905</v>
+        <v>432.7119054155453</v>
       </c>
       <c r="L27" t="n">
-        <v>584.9248016991353</v>
+        <v>860.4992920314899</v>
       </c>
       <c r="M27" t="n">
-        <v>1142.269019350873</v>
+        <v>1417.843509683228</v>
       </c>
       <c r="N27" t="n">
-        <v>1727.759383021641</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O27" t="n">
-        <v>2187.860449386277</v>
+        <v>1999.963208398597</v>
       </c>
       <c r="P27" t="n">
         <v>2356.555759195727</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485932</v>
+        <v>435.0960012485931</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0145279284112</v>
+        <v>369.0145279284111</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743116</v>
+        <v>319.4771309743115</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537681</v>
+        <v>271.002612953768</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976829</v>
+        <v>222.0564541976828</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189695</v>
+        <v>156.9153196189694</v>
       </c>
       <c r="H28" t="n">
         <v>103.2476000974933</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4480754567078</v>
+        <v>129.4480754567082</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266707</v>
+        <v>292.324072026671</v>
       </c>
       <c r="L28" t="n">
-        <v>529.976731599573</v>
+        <v>529.9767315995732</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320418</v>
+        <v>786.9494728320421</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O28" t="n">
         <v>1277.215367021226</v>
@@ -6406,7 +6406,7 @@
         <v>1554.333871362879</v>
       </c>
       <c r="R28" t="n">
-        <v>1519.323011771654</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S28" t="n">
         <v>1413.402053486826</v>
@@ -6418,16 +6418,16 @@
         <v>1101.15821767881</v>
       </c>
       <c r="V28" t="n">
-        <v>943.95740945537</v>
+        <v>943.9574094553705</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909068</v>
+        <v>761.3355041909073</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044202</v>
+        <v>633.6175363044207</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148354</v>
+        <v>515.1168737148353</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967885</v>
+        <v>964.5773097967895</v>
       </c>
       <c r="F29" t="n">
-        <v>653.960615325097</v>
+        <v>653.9606153250975</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353664</v>
+        <v>341.9353438353663</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I29" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
         <v>288.6637597322124</v>
@@ -6470,16 +6470,16 @@
         <v>1231.659656648232</v>
       </c>
       <c r="M29" t="n">
-        <v>1718.704328321546</v>
+        <v>1820.031403358843</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.683758630804</v>
+        <v>2395.010833668101</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019166</v>
+        <v>2891.359604056463</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.36557333999</v>
+        <v>3297.692648377287</v>
       </c>
       <c r="Q29" t="n">
         <v>3449.871985516403</v>
@@ -6488,7 +6488,7 @@
         <v>3496.017050083146</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T29" t="n">
         <v>3306.281825613528</v>
@@ -6500,13 +6500,13 @@
         <v>2921.529745166774</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X29" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y29" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.02630777612</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F30" t="n">
         <v>353.8402176902251</v>
@@ -6537,7 +6537,7 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I30" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J30" t="n">
         <v>157.1374150831905</v>
@@ -6549,7 +6549,7 @@
         <v>860.4992920314901</v>
       </c>
       <c r="M30" t="n">
-        <v>954.3717783631937</v>
+        <v>1417.843509683228</v>
       </c>
       <c r="N30" t="n">
         <v>1539.862142033962</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485931</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C31" t="n">
-        <v>369.014527928411</v>
+        <v>369.0145279284113</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743114</v>
+        <v>319.4771309743118</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537679</v>
+        <v>271.0026129537683</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976827</v>
+        <v>222.0564541976831</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9153196189693</v>
+        <v>156.9153196189698</v>
       </c>
       <c r="H31" t="n">
-        <v>103.247600097493</v>
+        <v>103.2476000974937</v>
       </c>
       <c r="I31" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J31" t="n">
         <v>129.448075456708</v>
@@ -6640,16 +6640,16 @@
         <v>1470.59540668884</v>
       </c>
       <c r="Q31" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R31" t="n">
-        <v>1519.323011771654</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S31" t="n">
         <v>1413.402053486826</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U31" t="n">
         <v>1101.15821767881</v>
@@ -6661,10 +6661,10 @@
         <v>761.3355041909073</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044207</v>
+        <v>633.6175363044208</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148353</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967888</v>
+        <v>964.5773097967892</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250966</v>
+        <v>653.9606153250973</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353656</v>
+        <v>341.9353438353667</v>
       </c>
       <c r="H32" t="n">
-        <v>118.2220468249039</v>
+        <v>118.222046824904</v>
       </c>
       <c r="I32" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6637597322124</v>
+        <v>187.3366846949164</v>
       </c>
       <c r="K32" t="n">
-        <v>698.1273576550346</v>
+        <v>596.8002826177384</v>
       </c>
       <c r="L32" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M32" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.683758630804</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P32" t="n">
-        <v>3196.36557333999</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q32" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.281825613527</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U32" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X32" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.02630777612</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E33" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F33" t="n">
         <v>353.8402176902251</v>
@@ -6774,22 +6774,22 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I33" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J33" t="n">
         <v>157.1374150831905</v>
       </c>
       <c r="K33" t="n">
-        <v>432.7119054155454</v>
+        <v>432.7119054155453</v>
       </c>
       <c r="L33" t="n">
-        <v>432.7119054155454</v>
+        <v>860.4992920314899</v>
       </c>
       <c r="M33" t="n">
-        <v>990.0561230672836</v>
+        <v>1417.843509683228</v>
       </c>
       <c r="N33" t="n">
-        <v>1575.546486738052</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O33" t="n">
         <v>1999.963208398597</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485928</v>
+        <v>435.0960012485929</v>
       </c>
       <c r="C34" t="n">
         <v>369.0145279284108</v>
@@ -6841,40 +6841,40 @@
         <v>319.4771309743112</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537678</v>
+        <v>271.0026129537677</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976826</v>
+        <v>222.0564541976825</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189693</v>
+        <v>156.9153196189691</v>
       </c>
       <c r="H34" t="n">
         <v>103.2476000974932</v>
       </c>
       <c r="I34" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567079</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266707</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995732</v>
+        <v>529.9767315995729</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320423</v>
+        <v>786.9494728320419</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O34" t="n">
         <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.595406688839</v>
+        <v>1470.59540668884</v>
       </c>
       <c r="Q34" t="n">
         <v>1554.333871362879</v>
@@ -6892,16 +6892,16 @@
         <v>1101.158217678809</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553697</v>
+        <v>943.9574094553698</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909065</v>
+        <v>761.3355041909066</v>
       </c>
       <c r="X34" t="n">
-        <v>633.61753630442</v>
+        <v>633.6175363044204</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148348</v>
+        <v>515.116873714835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D35" t="n">
-        <v>989.711620901877</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442199</v>
+        <v>749.053937344219</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906264</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189932</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J35" t="n">
-        <v>171.7485537137832</v>
+        <v>171.7485537137825</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932083</v>
+        <v>479.7379918932078</v>
       </c>
       <c r="L35" t="n">
-        <v>911.7961311430092</v>
+        <v>911.7961311430086</v>
       </c>
       <c r="M35" t="n">
-        <v>1398.693718110224</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N35" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321049</v>
       </c>
       <c r="P35" t="n">
-        <v>2571.932483898478</v>
+        <v>2571.932483898477</v>
       </c>
       <c r="Q35" t="n">
         <v>2723.964736331493</v>
@@ -6962,22 +6962,22 @@
         <v>2723.964736331493</v>
       </c>
       <c r="S35" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067725</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098071</v>
       </c>
       <c r="U35" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V35" t="n">
         <v>2351.851591887515</v>
       </c>
       <c r="W35" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y35" t="n">
         <v>1676.128774851156</v>
@@ -7011,28 +7011,28 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J36" t="n">
-        <v>54.47929472662987</v>
+        <v>141.6963688081574</v>
       </c>
       <c r="K36" t="n">
-        <v>148.0003125649523</v>
+        <v>417.2708591405122</v>
       </c>
       <c r="L36" t="n">
-        <v>575.787699180897</v>
+        <v>845.0582457564569</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.131916832635</v>
+        <v>938.9307320881604</v>
       </c>
       <c r="N36" t="n">
-        <v>1718.622280503403</v>
+        <v>1524.421095758928</v>
       </c>
       <c r="O36" t="n">
-        <v>2178.723346868039</v>
+        <v>1984.522162123564</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.315897665168</v>
+        <v>2341.114712920693</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.315897665168</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.20717640051112</v>
+        <v>107.3029779201078</v>
       </c>
       <c r="C37" t="n">
-        <v>73.71924319842765</v>
+        <v>91.81504471802424</v>
       </c>
       <c r="D37" t="n">
-        <v>73.71924319842765</v>
+        <v>91.81504471802424</v>
       </c>
       <c r="E37" t="n">
-        <v>73.71924319842765</v>
+        <v>91.81504471802424</v>
       </c>
       <c r="F37" t="n">
-        <v>73.71924319842765</v>
+        <v>91.81504471802424</v>
       </c>
       <c r="G37" t="n">
-        <v>59.17164873781283</v>
+        <v>77.26745025740937</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="K37" t="n">
         <v>115.881131553196</v>
       </c>
       <c r="L37" t="n">
-        <v>252.0596313827016</v>
+        <v>252.0596313827014</v>
       </c>
       <c r="M37" t="n">
-        <v>407.5582128717738</v>
+        <v>407.5582128717737</v>
       </c>
       <c r="N37" t="n">
-        <v>562.5938431187142</v>
+        <v>562.5938431187139</v>
       </c>
       <c r="O37" t="n">
-        <v>694.875787574164</v>
+        <v>694.8757875741637</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983812</v>
       </c>
       <c r="Q37" t="n">
-        <v>768.6858659787842</v>
+        <v>786.7816674983812</v>
       </c>
       <c r="R37" t="n">
-        <v>768.6858659787842</v>
+        <v>786.7816674983812</v>
       </c>
       <c r="S37" t="n">
-        <v>713.358447812054</v>
+        <v>731.454249331651</v>
       </c>
       <c r="T37" t="n">
-        <v>635.35057989661</v>
+        <v>653.4463814162069</v>
       </c>
       <c r="U37" t="n">
-        <v>502.3016922402352</v>
+        <v>520.3974937598321</v>
       </c>
       <c r="V37" t="n">
-        <v>395.694424134894</v>
+        <v>413.7902256544909</v>
       </c>
       <c r="W37" t="n">
-        <v>263.6660589885294</v>
+        <v>281.7618605081262</v>
       </c>
       <c r="X37" t="n">
-        <v>186.5416312201414</v>
+        <v>204.6374327397381</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.6345087486547</v>
+        <v>136.7303102682514</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>1436.213271669372</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338415</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018759</v>
+        <v>989.7116209018754</v>
       </c>
       <c r="E38" t="n">
-        <v>749.053937344219</v>
+        <v>749.0539373442185</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906251</v>
       </c>
       <c r="G38" t="n">
         <v>227.5990516189932</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662983</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662983</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137825</v>
       </c>
       <c r="K38" t="n">
-        <v>479.737991893208</v>
+        <v>479.7379918932078</v>
       </c>
       <c r="L38" t="n">
-        <v>911.7961311430088</v>
+        <v>911.7961311430086</v>
       </c>
       <c r="M38" t="n">
         <v>1398.693718110223</v>
@@ -7187,10 +7187,10 @@
         <v>1872.198988676084</v>
       </c>
       <c r="O38" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321049</v>
       </c>
       <c r="P38" t="n">
-        <v>2571.932483898478</v>
+        <v>2571.932483898476</v>
       </c>
       <c r="Q38" t="n">
         <v>2723.964736331492</v>
@@ -7199,22 +7199,22 @@
         <v>2723.964736331492</v>
       </c>
       <c r="S38" t="n">
-        <v>2703.265184067725</v>
+        <v>2703.265184067724</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.416592098071</v>
+        <v>2635.41659209807</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.702829655337</v>
+        <v>2534.702829655336</v>
       </c>
       <c r="V38" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887514</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081351</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939081</v>
+        <v>1915.54259393908</v>
       </c>
       <c r="Y38" t="n">
         <v>1676.128774851155</v>
@@ -7248,25 +7248,25 @@
         <v>112.8362090731987</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662983</v>
       </c>
       <c r="J39" t="n">
-        <v>141.6963688081574</v>
+        <v>54.47929472662983</v>
       </c>
       <c r="K39" t="n">
-        <v>417.2708591405123</v>
+        <v>54.47929472662983</v>
       </c>
       <c r="L39" t="n">
-        <v>845.058245756457</v>
+        <v>381.5865144364222</v>
       </c>
       <c r="M39" t="n">
-        <v>1402.402463408195</v>
+        <v>938.9307320881604</v>
       </c>
       <c r="N39" t="n">
         <v>1524.421095758928</v>
       </c>
       <c r="O39" t="n">
-        <v>1984.522162123563</v>
+        <v>1984.522162123564</v>
       </c>
       <c r="P39" t="n">
         <v>2341.114712920693</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.5890017927057</v>
+        <v>87.58900179270586</v>
       </c>
       <c r="C40" t="n">
-        <v>72.10106859062223</v>
+        <v>72.10106859062233</v>
       </c>
       <c r="D40" t="n">
-        <v>72.10106859062223</v>
+        <v>72.10106859062233</v>
       </c>
       <c r="E40" t="n">
-        <v>72.10106859062223</v>
+        <v>72.10106859062233</v>
       </c>
       <c r="F40" t="n">
-        <v>72.10106859062223</v>
+        <v>72.10106859062233</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000742</v>
+        <v>57.55347413000747</v>
       </c>
       <c r="H40" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662983</v>
       </c>
       <c r="I40" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662983</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662983</v>
       </c>
       <c r="K40" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531959</v>
       </c>
       <c r="L40" t="n">
-        <v>252.0596313827015</v>
+        <v>252.0596313827014</v>
       </c>
       <c r="M40" t="n">
-        <v>407.5582128717738</v>
+        <v>407.5582128717737</v>
       </c>
       <c r="N40" t="n">
-        <v>562.5938431187142</v>
+        <v>562.5938431187139</v>
       </c>
       <c r="O40" t="n">
-        <v>694.875787574164</v>
+        <v>694.8757875741637</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983812</v>
       </c>
       <c r="Q40" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983812</v>
       </c>
       <c r="R40" t="n">
-        <v>786.7816674983816</v>
+        <v>767.0676913709793</v>
       </c>
       <c r="S40" t="n">
-        <v>711.7402732042485</v>
+        <v>711.7402732042491</v>
       </c>
       <c r="T40" t="n">
-        <v>633.7324052888046</v>
+        <v>633.732405288805</v>
       </c>
       <c r="U40" t="n">
-        <v>500.6835176324297</v>
+        <v>500.6835176324302</v>
       </c>
       <c r="V40" t="n">
-        <v>394.0762495270886</v>
+        <v>394.076249527089</v>
       </c>
       <c r="W40" t="n">
-        <v>262.0478843807239</v>
+        <v>262.0478843807243</v>
       </c>
       <c r="X40" t="n">
-        <v>184.9234566123359</v>
+        <v>184.9234566123362</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.0163341408493</v>
+        <v>117.0163341408495</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338415</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018772</v>
+        <v>989.7116209018752</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442202</v>
+        <v>749.0539373442184</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906268</v>
+        <v>489.0307829906249</v>
       </c>
       <c r="G41" t="n">
         <v>227.5990516189932</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7485537137832</v>
+        <v>171.7485537137825</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932083</v>
+        <v>479.7379918932078</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7961311430092</v>
+        <v>911.7961311430087</v>
       </c>
       <c r="M41" t="n">
-        <v>1398.693718110224</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N41" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O41" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321049</v>
       </c>
       <c r="P41" t="n">
-        <v>2571.932483898478</v>
+        <v>2571.932483898477</v>
       </c>
       <c r="Q41" t="n">
         <v>2723.964736331493</v>
@@ -7436,25 +7436,25 @@
         <v>2723.964736331493</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067725</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098071</v>
       </c>
       <c r="U41" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655336</v>
       </c>
       <c r="V41" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887514</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081351</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.54259393908</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J42" t="n">
-        <v>141.6963688081575</v>
+        <v>141.6963688081574</v>
       </c>
       <c r="K42" t="n">
-        <v>417.2708591405124</v>
+        <v>417.2708591405122</v>
       </c>
       <c r="L42" t="n">
-        <v>845.0582457564572</v>
+        <v>845.0582457564569</v>
       </c>
       <c r="M42" t="n">
         <v>1402.402463408195</v>
@@ -7503,7 +7503,7 @@
         <v>1524.421095758928</v>
       </c>
       <c r="O42" t="n">
-        <v>1984.522162123563</v>
+        <v>1984.522162123564</v>
       </c>
       <c r="P42" t="n">
         <v>2341.114712920693</v>
@@ -7543,64 +7543,64 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.3029779201083</v>
+        <v>107.3029779201084</v>
       </c>
       <c r="C43" t="n">
-        <v>91.81504471802486</v>
+        <v>91.81504471802495</v>
       </c>
       <c r="D43" t="n">
-        <v>91.81504471802486</v>
+        <v>91.81504471802495</v>
       </c>
       <c r="E43" t="n">
-        <v>91.81504471802486</v>
+        <v>91.81504471802495</v>
       </c>
       <c r="F43" t="n">
-        <v>91.81504471802486</v>
+        <v>91.81504471802495</v>
       </c>
       <c r="G43" t="n">
-        <v>77.26745025741005</v>
+        <v>57.5534741300074</v>
       </c>
       <c r="H43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="I43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="K43" t="n">
         <v>115.881131553196</v>
       </c>
       <c r="L43" t="n">
-        <v>252.0596313827016</v>
+        <v>252.0596313827014</v>
       </c>
       <c r="M43" t="n">
-        <v>407.5582128717738</v>
+        <v>407.5582128717737</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187142</v>
+        <v>562.5938431187139</v>
       </c>
       <c r="O43" t="n">
-        <v>694.875787574164</v>
+        <v>694.8757875741637</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983812</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983812</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983812</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4542493316513</v>
+        <v>731.454249331651</v>
       </c>
       <c r="T43" t="n">
-        <v>653.4463814162073</v>
+        <v>653.446381416207</v>
       </c>
       <c r="U43" t="n">
-        <v>520.3974937598324</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V43" t="n">
         <v>413.7902256544912</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338415</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018764</v>
+        <v>989.711620901875</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442193</v>
+        <v>749.0539373442182</v>
       </c>
       <c r="F44" t="n">
-        <v>489.030782990626</v>
+        <v>489.0307829906251</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189932</v>
       </c>
       <c r="H44" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="I44" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137825</v>
       </c>
       <c r="K44" t="n">
-        <v>479.737991893208</v>
+        <v>479.7379918932079</v>
       </c>
       <c r="L44" t="n">
         <v>911.7961311430088</v>
@@ -7658,13 +7658,13 @@
         <v>1398.693718110223</v>
       </c>
       <c r="N44" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321049</v>
       </c>
       <c r="P44" t="n">
-        <v>2571.932483898478</v>
+        <v>2571.932483898477</v>
       </c>
       <c r="Q44" t="n">
         <v>2723.964736331493</v>
@@ -7673,25 +7673,25 @@
         <v>2723.964736331493</v>
       </c>
       <c r="S44" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067725</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.41659209807</v>
       </c>
       <c r="U44" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655336</v>
       </c>
       <c r="V44" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887514</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081351</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.54259393908</v>
       </c>
       <c r="Y44" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I45" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J45" t="n">
-        <v>141.6963688081575</v>
+        <v>141.6963688081574</v>
       </c>
       <c r="K45" t="n">
-        <v>417.2708591405124</v>
+        <v>417.2708591405122</v>
       </c>
       <c r="L45" t="n">
-        <v>845.0582457564572</v>
+        <v>845.0582457564569</v>
       </c>
       <c r="M45" t="n">
         <v>1402.402463408195</v>
@@ -7740,7 +7740,7 @@
         <v>1524.421095758928</v>
       </c>
       <c r="O45" t="n">
-        <v>1984.522162123563</v>
+        <v>1984.522162123564</v>
       </c>
       <c r="P45" t="n">
         <v>2341.114712920693</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.3029779201078</v>
+        <v>87.58900179270572</v>
       </c>
       <c r="C46" t="n">
-        <v>91.81504471802427</v>
+        <v>72.10106859062225</v>
       </c>
       <c r="D46" t="n">
-        <v>91.81504471802427</v>
+        <v>72.10106859062225</v>
       </c>
       <c r="E46" t="n">
-        <v>91.81504471802427</v>
+        <v>72.10106859062225</v>
       </c>
       <c r="F46" t="n">
-        <v>91.81504471802427</v>
+        <v>72.10106859062225</v>
       </c>
       <c r="G46" t="n">
-        <v>77.26745025740937</v>
+        <v>57.55347413000743</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="I46" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J46" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="K46" t="n">
         <v>115.881131553196</v>
       </c>
       <c r="L46" t="n">
-        <v>252.0596313827016</v>
+        <v>252.0596313827014</v>
       </c>
       <c r="M46" t="n">
-        <v>407.5582128717738</v>
+        <v>407.5582128717737</v>
       </c>
       <c r="N46" t="n">
-        <v>562.5938431187142</v>
+        <v>562.5938431187139</v>
       </c>
       <c r="O46" t="n">
-        <v>694.875787574164</v>
+        <v>694.8757875741637</v>
       </c>
       <c r="P46" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983812</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983812</v>
       </c>
       <c r="R46" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983812</v>
       </c>
       <c r="S46" t="n">
-        <v>731.4542493316513</v>
+        <v>711.7402732042488</v>
       </c>
       <c r="T46" t="n">
-        <v>653.4463814162073</v>
+        <v>633.7324052888047</v>
       </c>
       <c r="U46" t="n">
-        <v>520.3974937598323</v>
+        <v>500.6835176324298</v>
       </c>
       <c r="V46" t="n">
-        <v>413.7902256544911</v>
+        <v>394.0762495270886</v>
       </c>
       <c r="W46" t="n">
-        <v>281.7618605081263</v>
+        <v>262.047884380724</v>
       </c>
       <c r="X46" t="n">
-        <v>204.6374327397382</v>
+        <v>184.923456612336</v>
       </c>
       <c r="Y46" t="n">
-        <v>136.7303102682515</v>
+        <v>117.0163341408493</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>101.371802766976</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8705,10 +8705,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>381.3518698822123</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.4415561073552</v>
+        <v>203.9089023233611</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,7 +8775,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>225.3613735431747</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8784,10 +8784,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>53.8071034772421</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>165.1417058516502</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.371802766976</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>349.2884508079981</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>352.4051964243504</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>137.2633189153694</v>
       </c>
       <c r="N15" t="n">
-        <v>154.9918226869883</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9167,7 +9167,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>352.4051964243496</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>227.7839381316923</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9252,13 +9252,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>154.9918226869893</v>
+        <v>515.1863184416653</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>53.8071034772421</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.371802766976</v>
+        <v>182.8391489829819</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.9089023233601</v>
+        <v>122.4415561073552</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9483,16 +9483,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>478.6877368183376</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>154.9918226869893</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>47.27246317627831</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9650,13 +9650,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
-        <v>495.0402356415689</v>
+        <v>304.4858531503328</v>
       </c>
       <c r="P23" t="n">
-        <v>381.3518698822123</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.4415561073552</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>137.2633189153689</v>
       </c>
       <c r="N24" t="n">
-        <v>154.9918226869883</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9954,7 +9954,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>65.44673707356949</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,13 +9963,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869889</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>224.2064063150703</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
         <v>273.1004740566038</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>137.263318915369</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869888</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10431,16 +10431,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>49.98397756525986</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869889</v>
       </c>
       <c r="O33" t="n">
-        <v>475.9762224293546</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10662,16 +10662,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>159.9124116577335</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>137.2633189153689</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.93766118339644</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10838,10 +10838,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229265</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578748</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,19 +10899,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472588</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356955</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>380.3953106054543</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>154.9918226869879</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11063,7 +11063,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155857</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>154.9918226869879</v>
+        <v>154.9918226869884</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406825</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>154.9918226869879</v>
+        <v>154.9918226869884</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>83.01057365886226</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564024</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.75955422411984</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>269.9124485024232</v>
       </c>
       <c r="X11" t="n">
-        <v>289.2127067351698</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.7226826589843</v>
+        <v>92.72268265898421</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438478</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774262</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.95871608592884</v>
       </c>
       <c r="G13" t="n">
-        <v>40.59901077223004</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271704</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>167.2175338611439</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419688</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922377</v>
+        <v>95.60749361555099</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>12.2886648814851</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244662</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024231</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.9587160859288</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>77.99174215033074</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366584</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>62.48948039536806</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>140.8174128706116</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>103.0897775851147</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.844153009532865e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1171924.236983109</v>
+        <v>1171924.236983108</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>172322.2420891435</v>
       </c>
       <c r="C2" t="n">
-        <v>172322.2420891434</v>
+        <v>172322.2420891435</v>
       </c>
       <c r="D2" t="n">
         <v>172322.2420891435</v>
@@ -26323,13 +26323,13 @@
         <v>150589.5295769477</v>
       </c>
       <c r="F2" t="n">
-        <v>150589.5295769478</v>
+        <v>150589.5295769477</v>
       </c>
       <c r="G2" t="n">
-        <v>172715.413611191</v>
+        <v>172715.4136111908</v>
       </c>
       <c r="H2" t="n">
-        <v>172715.4136111909</v>
+        <v>172715.4136111908</v>
       </c>
       <c r="I2" t="n">
         <v>172715.4136111909</v>
@@ -26344,16 +26344,16 @@
         <v>172715.4136111906</v>
       </c>
       <c r="M2" t="n">
+        <v>172715.4136111909</v>
+      </c>
+      <c r="N2" t="n">
+        <v>172715.4136111909</v>
+      </c>
+      <c r="O2" t="n">
+        <v>172715.4136111909</v>
+      </c>
+      <c r="P2" t="n">
         <v>172715.4136111908</v>
-      </c>
-      <c r="N2" t="n">
-        <v>172715.4136111908</v>
-      </c>
-      <c r="O2" t="n">
-        <v>172715.4136111908</v>
-      </c>
-      <c r="P2" t="n">
-        <v>172715.4136111909</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>367830.3395149714</v>
+        <v>367830.3395149712</v>
       </c>
       <c r="F3" t="n">
-        <v>9.991448938048309e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915244</v>
+        <v>61543.83320915254</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613918</v>
+        <v>83547.74167613921</v>
       </c>
       <c r="K3" t="n">
-        <v>7.71771218361599e-11</v>
+        <v>3.021374298698698e-11</v>
       </c>
       <c r="L3" t="n">
         <v>61543.83320915249</v>
       </c>
       <c r="M3" t="n">
-        <v>149683.3109415066</v>
+        <v>149683.3109415065</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561252</v>
+        <v>20455.48779561259</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>397070.1574037161</v>
       </c>
       <c r="E4" t="n">
-        <v>244219.7408414131</v>
+        <v>244219.7408414132</v>
       </c>
       <c r="F4" t="n">
         <v>244219.7408414132</v>
       </c>
       <c r="G4" t="n">
-        <v>300146.3013995251</v>
+        <v>300146.3013995253</v>
       </c>
       <c r="H4" t="n">
-        <v>300146.3013995251</v>
+        <v>300146.3013995252</v>
       </c>
       <c r="I4" t="n">
         <v>300146.3013995251</v>
@@ -26442,7 +26442,7 @@
         <v>298009.3859165158</v>
       </c>
       <c r="K4" t="n">
-        <v>298009.3859165157</v>
+        <v>298009.3859165159</v>
       </c>
       <c r="L4" t="n">
         <v>298009.3859165158</v>
@@ -26479,7 +26479,7 @@
         <v>48881.83299975545</v>
       </c>
       <c r="F5" t="n">
-        <v>48881.83299975546</v>
+        <v>48881.83299975545</v>
       </c>
       <c r="G5" t="n">
         <v>55349.24364233075</v>
@@ -26488,28 +26488,28 @@
         <v>55349.24364233075</v>
       </c>
       <c r="I5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233074</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462555</v>
+        <v>64678.11138462552</v>
       </c>
       <c r="K5" t="n">
-        <v>64678.11138462553</v>
+        <v>64678.11138462554</v>
       </c>
       <c r="L5" t="n">
-        <v>64678.11138462553</v>
+        <v>64678.11138462554</v>
       </c>
       <c r="M5" t="n">
-        <v>57153.73105654695</v>
+        <v>57153.73105654694</v>
       </c>
       <c r="N5" t="n">
+        <v>57153.73105654692</v>
+      </c>
+      <c r="O5" t="n">
         <v>57153.73105654694</v>
       </c>
-      <c r="O5" t="n">
-        <v>57153.73105654695</v>
-      </c>
       <c r="P5" t="n">
-        <v>57153.73105654695</v>
+        <v>57153.73105654694</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-258375.5153145726</v>
+        <v>-258379.8838870397</v>
       </c>
       <c r="C6" t="n">
-        <v>-258375.5153145726</v>
+        <v>-258379.8838870398</v>
       </c>
       <c r="D6" t="n">
-        <v>-258375.5153145726</v>
+        <v>-258379.8838870398</v>
       </c>
       <c r="E6" t="n">
-        <v>-510342.3837791923</v>
+        <v>-510588.2269351283</v>
       </c>
       <c r="F6" t="n">
-        <v>-142512.044264221</v>
+        <v>-142757.8874201571</v>
       </c>
       <c r="G6" t="n">
-        <v>-244323.9646398172</v>
+        <v>-244323.9646398177</v>
       </c>
       <c r="H6" t="n">
-        <v>-182780.131430665</v>
+        <v>-182780.1314306651</v>
       </c>
       <c r="I6" t="n">
         <v>-182780.131430665</v>
@@ -26546,22 +26546,22 @@
         <v>-273519.8253660899</v>
       </c>
       <c r="K6" t="n">
-        <v>-189972.0836899507</v>
+        <v>-189972.0836899508</v>
       </c>
       <c r="L6" t="n">
         <v>-251515.9168991033</v>
       </c>
       <c r="M6" t="n">
-        <v>-331114.3421564324</v>
+        <v>-331114.3421564321</v>
       </c>
       <c r="N6" t="n">
-        <v>-181431.0312149257</v>
+        <v>-181431.0312149256</v>
       </c>
       <c r="O6" t="n">
-        <v>-201886.5190105384</v>
+        <v>-201886.5190105383</v>
       </c>
       <c r="P6" t="n">
-        <v>-181431.0312149256</v>
+        <v>-181431.0312149258</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="H2" t="n">
         <v>165.9269238499924</v>
@@ -26716,16 +26716,16 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M2" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="N2" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="O2" t="n">
         <v>152.5867559728739</v>
       </c>
       <c r="P2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791155</v>
       </c>
       <c r="F3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791155</v>
       </c>
       <c r="G3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791155</v>
       </c>
       <c r="H3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791155</v>
       </c>
       <c r="I3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791155</v>
       </c>
       <c r="J3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791155</v>
       </c>
       <c r="K3" t="n">
         <v>134.0206915791156</v>
       </c>
       <c r="L3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791155</v>
       </c>
       <c r="M3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791155</v>
       </c>
       <c r="N3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791155</v>
       </c>
       <c r="O3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791155</v>
       </c>
       <c r="P3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791155</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26808,28 @@
         <v>632.8664803414642</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414639</v>
       </c>
       <c r="J4" t="n">
+        <v>874.0042625207865</v>
+      </c>
+      <c r="K4" t="n">
+        <v>874.0042625207866</v>
+      </c>
+      <c r="L4" t="n">
         <v>874.0042625207867</v>
       </c>
-      <c r="K4" t="n">
-        <v>874.0042625207865</v>
-      </c>
-      <c r="L4" t="n">
-        <v>874.0042625207865</v>
-      </c>
       <c r="M4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828731</v>
       </c>
       <c r="N4" t="n">
-        <v>680.991184082873</v>
+        <v>680.9911840828729</v>
       </c>
       <c r="O4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828731</v>
       </c>
       <c r="P4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828731</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F2" t="n">
-        <v>1.248931117256039e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144054</v>
+        <v>76.92979151144067</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>25.56935974451565</v>
       </c>
       <c r="K2" t="n">
-        <v>9.647140229519987e-14</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="L2" t="n">
         <v>76.92979151144061</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691753</v>
+        <v>50.08760471691754</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451565</v>
+        <v>25.56935974451574</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791155</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793225</v>
+        <v>241.1377821793226</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8534019035511</v>
+        <v>439.8534019035507</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="K2" t="n">
-        <v>1.248931117256039e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144054</v>
+        <v>76.92979151144067</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>25.56935974451565</v>
       </c>
       <c r="P2" t="n">
-        <v>9.647140229519987e-14</v>
+        <v>3.776717873373372e-14</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591277</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-1.044497821567347e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591277</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="I17" t="n">
         <v>150.3178400209649</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591277</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="H19" t="n">
         <v>155.6301935822177</v>
@@ -28743,7 +28743,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J19" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389063</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>17.91484350440142</v>
       </c>
       <c r="R19" t="n">
         <v>137.1599022512688</v>
       </c>
       <c r="S19" t="n">
-        <v>27.87981460773591</v>
+        <v>9.964971103334193</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591277</v>
       </c>
       <c r="S20" t="n">
         <v>165.9269238499924</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103334477</v>
       </c>
       <c r="C22" t="n">
         <v>165.9269238499924</v>
@@ -28980,7 +28980,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389063</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440142</v>
       </c>
       <c r="R22" t="n">
         <v>137.1599022512688</v>
@@ -29025,7 +29025,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.964971103334591</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591277</v>
       </c>
       <c r="S23" t="n">
         <v>165.9269238499924</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.964971103334904</v>
+        <v>9.964971103334477</v>
       </c>
       <c r="C25" t="n">
         <v>165.9269238499924</v>
@@ -29217,7 +29217,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J25" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389063</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440142</v>
       </c>
       <c r="R25" t="n">
         <v>137.1599022512688</v>
@@ -29299,7 +29299,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1485704102025238</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L26" t="n">
         <v>102.4991512559563</v>
@@ -29317,7 +29317,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.148570410202268</v>
       </c>
       <c r="R26" t="n">
         <v>102.4991512559563</v>
@@ -29542,7 +29542,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1485704102016143</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N29" t="n">
         <v>102.4991512559563</v>
@@ -29554,7 +29554,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102022112</v>
       </c>
       <c r="R29" t="n">
         <v>102.4991512559563</v>
@@ -29770,7 +29770,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102027654</v>
       </c>
       <c r="K32" t="n">
         <v>102.4991512559563</v>
@@ -29782,7 +29782,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1485704102013869</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O32" t="n">
         <v>102.4991512559563</v>
@@ -29946,7 +29946,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4991512559551</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q34" t="n">
         <v>102.4991512559563</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I35" t="n">
         <v>150.3178400209649</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591277</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H37" t="n">
-        <v>150.9847631111465</v>
+        <v>133.069919606746</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389063</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>17.91484350440142</v>
       </c>
       <c r="R37" t="n">
         <v>137.1599022512688</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I38" t="n">
         <v>150.3178400209649</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591277</v>
       </c>
       <c r="S38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H40" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I40" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389063</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440142</v>
       </c>
       <c r="R40" t="n">
-        <v>137.1599022512688</v>
+        <v>117.6430658851409</v>
       </c>
       <c r="S40" t="n">
-        <v>133.069919606745</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U40" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V40" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W40" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X40" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591277</v>
       </c>
       <c r="S41" t="n">
         <v>152.5867559728739</v>
@@ -30630,16 +30630,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
+        <v>133.0699196067452</v>
+      </c>
+      <c r="H43" t="n">
         <v>152.5867559728739</v>
-      </c>
-      <c r="H43" t="n">
-        <v>133.0699196067453</v>
       </c>
       <c r="I43" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389063</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440142</v>
       </c>
       <c r="R43" t="n">
         <v>137.1599022512688</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="C44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="D44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="E44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="F44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="G44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="H44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="I44" t="n">
         <v>150.3178400209649</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591277</v>
       </c>
       <c r="S44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="T44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="U44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="V44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="W44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="X44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="C46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,16 +30867,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="H46" t="n">
-        <v>133.069919606746</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="I46" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389063</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440142</v>
       </c>
       <c r="R46" t="n">
         <v>137.1599022512688</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067456</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="U46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="V46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="W46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642836</v>
+        <v>0.5387766495642828</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350222</v>
+        <v>5.517746362350214</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232704</v>
       </c>
       <c r="J11" t="n">
-        <v>45.72799466095666</v>
+        <v>45.7279946609566</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701281</v>
+        <v>68.53441023701271</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611577</v>
+        <v>85.02299612611564</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780459</v>
+        <v>94.60446536780445</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337912</v>
+        <v>96.13526452337898</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427427</v>
+        <v>90.77780421427414</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815601</v>
+        <v>77.4767556781559</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563499</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319246</v>
+        <v>33.84392871319241</v>
       </c>
       <c r="S11" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194611</v>
       </c>
       <c r="T11" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467649</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514262</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097956</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634079</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736397</v>
+        <v>9.925117253736383</v>
       </c>
       <c r="J12" t="n">
-        <v>27.23528035194086</v>
+        <v>27.23528035194082</v>
       </c>
       <c r="K12" t="n">
-        <v>46.54943209309719</v>
+        <v>46.54943209309712</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588794</v>
+        <v>62.59145600588785</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061802</v>
+        <v>73.04127691061792</v>
       </c>
       <c r="N12" t="n">
-        <v>74.97446216933943</v>
+        <v>74.97446216933932</v>
       </c>
       <c r="O12" t="n">
-        <v>68.5869854348329</v>
+        <v>68.5869854348328</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690122</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149601</v>
       </c>
       <c r="R12" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654679</v>
       </c>
       <c r="S12" t="n">
-        <v>5.354505932429759</v>
+        <v>5.354505932429751</v>
       </c>
       <c r="T12" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067991</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459182</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459459</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148725186301233</v>
+        <v>2.14872518630123</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519913</v>
+        <v>7.267876192519902</v>
       </c>
       <c r="J13" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607837</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608353</v>
       </c>
       <c r="L13" t="n">
-        <v>35.93072770630914</v>
+        <v>35.93072770630909</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653586</v>
       </c>
       <c r="N13" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428282</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905062</v>
       </c>
       <c r="P13" t="n">
-        <v>29.22969312735334</v>
+        <v>29.2296931273533</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844644</v>
       </c>
       <c r="R13" t="n">
-        <v>10.86666132049682</v>
+        <v>10.8666613204968</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412535</v>
+        <v>4.211765012412529</v>
       </c>
       <c r="T13" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314496</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614252</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642828</v>
       </c>
       <c r="H14" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350214</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232704</v>
       </c>
       <c r="J14" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609566</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701271</v>
       </c>
       <c r="L14" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611564</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780445</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337898</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427414</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815598</v>
+        <v>77.4767556781559</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563499</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319241</v>
       </c>
       <c r="S14" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194611</v>
       </c>
       <c r="T14" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467649</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514262</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097956</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634079</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736383</v>
       </c>
       <c r="J15" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194082</v>
       </c>
       <c r="K15" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309712</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588785</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061792</v>
       </c>
       <c r="N15" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933932</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483288</v>
+        <v>68.5869854348328</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690122</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149601</v>
       </c>
       <c r="R15" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654679</v>
       </c>
       <c r="S15" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429751</v>
       </c>
       <c r="T15" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067991</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459182</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459459</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148725186301232</v>
+        <v>2.14872518630123</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519902</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607837</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608353</v>
       </c>
       <c r="L16" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630909</v>
       </c>
       <c r="M16" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653586</v>
       </c>
       <c r="N16" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428282</v>
       </c>
       <c r="O16" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905062</v>
       </c>
       <c r="P16" t="n">
-        <v>29.22969312735334</v>
+        <v>29.2296931273533</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844644</v>
       </c>
       <c r="R16" t="n">
-        <v>10.86666132049682</v>
+        <v>10.8666613204968</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412529</v>
       </c>
       <c r="T16" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314496</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614252</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642828</v>
       </c>
       <c r="H17" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350214</v>
       </c>
       <c r="I17" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232704</v>
       </c>
       <c r="J17" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609566</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701271</v>
       </c>
       <c r="L17" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611564</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780445</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337898</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427414</v>
       </c>
       <c r="P17" t="n">
-        <v>77.47675567815598</v>
+        <v>77.4767556781559</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563499</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319241</v>
       </c>
       <c r="S17" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194611</v>
       </c>
       <c r="T17" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467649</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514262</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097956</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634079</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736383</v>
       </c>
       <c r="J18" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194082</v>
       </c>
       <c r="K18" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309712</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588785</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061792</v>
       </c>
       <c r="N18" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933932</v>
       </c>
       <c r="O18" t="n">
-        <v>68.58698543483288</v>
+        <v>68.5869854348328</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690122</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149601</v>
       </c>
       <c r="R18" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654679</v>
       </c>
       <c r="S18" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429751</v>
       </c>
       <c r="T18" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067991</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459182</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459459</v>
       </c>
       <c r="H19" t="n">
-        <v>2.148725186301232</v>
+        <v>2.14872518630123</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519902</v>
       </c>
       <c r="J19" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607837</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608353</v>
       </c>
       <c r="L19" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630909</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653586</v>
       </c>
       <c r="N19" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428282</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905062</v>
       </c>
       <c r="P19" t="n">
-        <v>29.22969312735334</v>
+        <v>29.2296931273533</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844644</v>
       </c>
       <c r="R19" t="n">
-        <v>10.86666132049682</v>
+        <v>10.8666613204968</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412529</v>
       </c>
       <c r="T19" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314496</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614252</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642828</v>
       </c>
       <c r="H20" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350214</v>
       </c>
       <c r="I20" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232704</v>
       </c>
       <c r="J20" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609566</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701271</v>
       </c>
       <c r="L20" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611564</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780445</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337898</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427414</v>
       </c>
       <c r="P20" t="n">
-        <v>77.47675567815598</v>
+        <v>77.4767556781559</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563499</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319241</v>
       </c>
       <c r="S20" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194611</v>
       </c>
       <c r="T20" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467649</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514262</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097956</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634079</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736383</v>
       </c>
       <c r="J21" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194082</v>
       </c>
       <c r="K21" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309712</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588785</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061792</v>
       </c>
       <c r="N21" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933932</v>
       </c>
       <c r="O21" t="n">
-        <v>68.58698543483288</v>
+        <v>68.5869854348328</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690122</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149601</v>
       </c>
       <c r="R21" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654679</v>
       </c>
       <c r="S21" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429751</v>
       </c>
       <c r="T21" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067991</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459182</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459459</v>
       </c>
       <c r="H22" t="n">
-        <v>2.148725186301232</v>
+        <v>2.14872518630123</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519902</v>
       </c>
       <c r="J22" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607837</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608353</v>
       </c>
       <c r="L22" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630909</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653586</v>
       </c>
       <c r="N22" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428282</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905062</v>
       </c>
       <c r="P22" t="n">
-        <v>29.22969312735334</v>
+        <v>29.2296931273533</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844644</v>
       </c>
       <c r="R22" t="n">
-        <v>10.86666132049682</v>
+        <v>10.8666613204968</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412529</v>
       </c>
       <c r="T22" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314496</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614252</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642828</v>
       </c>
       <c r="H23" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350214</v>
       </c>
       <c r="I23" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232704</v>
       </c>
       <c r="J23" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609566</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701271</v>
       </c>
       <c r="L23" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611564</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780445</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337898</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427414</v>
       </c>
       <c r="P23" t="n">
-        <v>77.47675567815598</v>
+        <v>77.4767556781559</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563499</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319241</v>
       </c>
       <c r="S23" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194611</v>
       </c>
       <c r="T23" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467649</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514262</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097956</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634079</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736383</v>
       </c>
       <c r="J24" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194082</v>
       </c>
       <c r="K24" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309712</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588785</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061792</v>
       </c>
       <c r="N24" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933932</v>
       </c>
       <c r="O24" t="n">
-        <v>68.58698543483288</v>
+        <v>68.5869854348328</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690122</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149601</v>
       </c>
       <c r="R24" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654679</v>
       </c>
       <c r="S24" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429751</v>
       </c>
       <c r="T24" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067991</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459182</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459459</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148725186301232</v>
+        <v>2.14872518630123</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519902</v>
       </c>
       <c r="J25" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607837</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608353</v>
       </c>
       <c r="L25" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630909</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653586</v>
       </c>
       <c r="N25" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428282</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905062</v>
       </c>
       <c r="P25" t="n">
-        <v>29.22969312735334</v>
+        <v>29.2296931273533</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844644</v>
       </c>
       <c r="R25" t="n">
-        <v>10.86666132049682</v>
+        <v>10.8666613204968</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412529</v>
       </c>
       <c r="T25" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314496</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614252</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642828</v>
       </c>
       <c r="H26" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350214</v>
       </c>
       <c r="I26" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232704</v>
       </c>
       <c r="J26" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609566</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701271</v>
       </c>
       <c r="L26" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611564</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780445</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337898</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427414</v>
       </c>
       <c r="P26" t="n">
-        <v>77.47675567815598</v>
+        <v>77.4767556781559</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563499</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319241</v>
       </c>
       <c r="S26" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194611</v>
       </c>
       <c r="T26" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467649</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514262</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097956</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634079</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736383</v>
       </c>
       <c r="J27" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194082</v>
       </c>
       <c r="K27" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309712</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588785</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061792</v>
       </c>
       <c r="N27" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933932</v>
       </c>
       <c r="O27" t="n">
-        <v>68.58698543483288</v>
+        <v>68.5869854348328</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690122</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149601</v>
       </c>
       <c r="R27" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654679</v>
       </c>
       <c r="S27" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429751</v>
       </c>
       <c r="T27" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067991</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459182</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459459</v>
       </c>
       <c r="H28" t="n">
-        <v>2.148725186301232</v>
+        <v>2.14872518630123</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519902</v>
       </c>
       <c r="J28" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607837</v>
       </c>
       <c r="K28" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608353</v>
       </c>
       <c r="L28" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630909</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653586</v>
       </c>
       <c r="N28" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428282</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905062</v>
       </c>
       <c r="P28" t="n">
-        <v>29.22969312735334</v>
+        <v>29.2296931273533</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844644</v>
       </c>
       <c r="R28" t="n">
-        <v>10.86666132049682</v>
+        <v>10.8666613204968</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412529</v>
       </c>
       <c r="T28" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314496</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614252</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642833</v>
       </c>
       <c r="H29" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350218</v>
       </c>
       <c r="I29" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232705</v>
       </c>
       <c r="J29" t="n">
-        <v>45.72799466095665</v>
+        <v>45.72799466095663</v>
       </c>
       <c r="K29" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701276</v>
       </c>
       <c r="L29" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611571</v>
       </c>
       <c r="M29" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780454</v>
       </c>
       <c r="N29" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337906</v>
       </c>
       <c r="O29" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427421</v>
       </c>
       <c r="P29" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815595</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563504</v>
       </c>
       <c r="R29" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319244</v>
       </c>
       <c r="S29" t="n">
         <v>12.27737290194612</v>
@@ -33214,7 +33214,7 @@
         <v>2.358494783467652</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514266</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H30" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I30" t="n">
-        <v>9.925117253736396</v>
+        <v>9.92511725373639</v>
       </c>
       <c r="J30" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194084</v>
       </c>
       <c r="K30" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309716</v>
       </c>
       <c r="L30" t="n">
-        <v>62.59145600588793</v>
+        <v>62.5914560058879</v>
       </c>
       <c r="M30" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061798</v>
       </c>
       <c r="N30" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933939</v>
       </c>
       <c r="O30" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483285</v>
       </c>
       <c r="P30" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690127</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149604</v>
       </c>
       <c r="R30" t="n">
-        <v>17.89808405654681</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S30" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429756</v>
       </c>
       <c r="T30" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U30" t="n">
         <v>0.01896519220459184</v>
@@ -33330,43 +33330,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H31" t="n">
         <v>2.148725186301232</v>
       </c>
       <c r="I31" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519909</v>
       </c>
       <c r="J31" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K31" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608355</v>
       </c>
       <c r="L31" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630912</v>
       </c>
       <c r="M31" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653589</v>
       </c>
       <c r="N31" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428285</v>
       </c>
       <c r="O31" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P31" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844645</v>
       </c>
       <c r="R31" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S31" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412532</v>
       </c>
       <c r="T31" t="n">
         <v>1.032618443314497</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642828</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350214</v>
       </c>
       <c r="I32" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232704</v>
       </c>
       <c r="J32" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609566</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701271</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611564</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780445</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337898</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427414</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815598</v>
+        <v>77.4767556781559</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563499</v>
       </c>
       <c r="R32" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319241</v>
       </c>
       <c r="S32" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194611</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467649</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514262</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097956</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634079</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736383</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194082</v>
       </c>
       <c r="K33" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309712</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588785</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061792</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933932</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483288</v>
+        <v>68.5869854348328</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690122</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149601</v>
       </c>
       <c r="R33" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654679</v>
       </c>
       <c r="S33" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429751</v>
       </c>
       <c r="T33" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067991</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459182</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459459</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148725186301232</v>
+        <v>2.14872518630123</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519902</v>
       </c>
       <c r="J34" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607837</v>
       </c>
       <c r="K34" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608353</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630909</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653586</v>
       </c>
       <c r="N34" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428282</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905062</v>
       </c>
       <c r="P34" t="n">
-        <v>29.22969312735334</v>
+        <v>29.2296931273533</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844644</v>
       </c>
       <c r="R34" t="n">
-        <v>10.86666132049682</v>
+        <v>10.8666613204968</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412529</v>
       </c>
       <c r="T34" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314496</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614252</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642828</v>
       </c>
       <c r="H35" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350214</v>
       </c>
       <c r="I35" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232704</v>
       </c>
       <c r="J35" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609566</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701271</v>
       </c>
       <c r="L35" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611564</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780445</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337898</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427414</v>
       </c>
       <c r="P35" t="n">
-        <v>77.47675567815598</v>
+        <v>77.4767556781559</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563499</v>
       </c>
       <c r="R35" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319241</v>
       </c>
       <c r="S35" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194611</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467649</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514262</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097956</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634079</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736383</v>
       </c>
       <c r="J36" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194082</v>
       </c>
       <c r="K36" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309712</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588785</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061792</v>
       </c>
       <c r="N36" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933932</v>
       </c>
       <c r="O36" t="n">
-        <v>68.58698543483288</v>
+        <v>68.5869854348328</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690122</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149601</v>
       </c>
       <c r="R36" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654679</v>
       </c>
       <c r="S36" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429751</v>
       </c>
       <c r="T36" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067991</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459182</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459459</v>
       </c>
       <c r="H37" t="n">
-        <v>2.148725186301232</v>
+        <v>2.14872518630123</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519902</v>
       </c>
       <c r="J37" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607837</v>
       </c>
       <c r="K37" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608353</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630909</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653586</v>
       </c>
       <c r="N37" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428282</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905062</v>
       </c>
       <c r="P37" t="n">
-        <v>29.22969312735334</v>
+        <v>29.2296931273533</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844644</v>
       </c>
       <c r="R37" t="n">
-        <v>10.86666132049682</v>
+        <v>10.8666613204968</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412529</v>
       </c>
       <c r="T37" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314496</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614252</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642828</v>
       </c>
       <c r="H38" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350214</v>
       </c>
       <c r="I38" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232704</v>
       </c>
       <c r="J38" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609566</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701271</v>
       </c>
       <c r="L38" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611564</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780445</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337898</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427414</v>
       </c>
       <c r="P38" t="n">
-        <v>77.47675567815598</v>
+        <v>77.4767556781559</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563499</v>
       </c>
       <c r="R38" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319241</v>
       </c>
       <c r="S38" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194611</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467649</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514262</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097956</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634079</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736383</v>
       </c>
       <c r="J39" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194082</v>
       </c>
       <c r="K39" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309712</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588785</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061792</v>
       </c>
       <c r="N39" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933932</v>
       </c>
       <c r="O39" t="n">
-        <v>68.58698543483288</v>
+        <v>68.5869854348328</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690122</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149601</v>
       </c>
       <c r="R39" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654679</v>
       </c>
       <c r="S39" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429751</v>
       </c>
       <c r="T39" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067991</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459182</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459459</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148725186301232</v>
+        <v>2.14872518630123</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519902</v>
       </c>
       <c r="J40" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607837</v>
       </c>
       <c r="K40" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608353</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630909</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653586</v>
       </c>
       <c r="N40" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428282</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905062</v>
       </c>
       <c r="P40" t="n">
-        <v>29.22969312735334</v>
+        <v>29.2296931273533</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844644</v>
       </c>
       <c r="R40" t="n">
-        <v>10.86666132049682</v>
+        <v>10.8666613204968</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412529</v>
       </c>
       <c r="T40" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314496</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614252</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642828</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350214</v>
       </c>
       <c r="I41" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232704</v>
       </c>
       <c r="J41" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609566</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701271</v>
       </c>
       <c r="L41" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611564</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780445</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337898</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427414</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815598</v>
+        <v>77.4767556781559</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563499</v>
       </c>
       <c r="R41" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319241</v>
       </c>
       <c r="S41" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194611</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467649</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514262</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097956</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634079</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736383</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194082</v>
       </c>
       <c r="K42" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309712</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588785</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061792</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933932</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483288</v>
+        <v>68.5869854348328</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690122</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149601</v>
       </c>
       <c r="R42" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654679</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429751</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067991</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459182</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459459</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148725186301232</v>
+        <v>2.14872518630123</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519902</v>
       </c>
       <c r="J43" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607837</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608353</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630909</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653586</v>
       </c>
       <c r="N43" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428282</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905062</v>
       </c>
       <c r="P43" t="n">
-        <v>29.22969312735334</v>
+        <v>29.2296931273533</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844644</v>
       </c>
       <c r="R43" t="n">
-        <v>10.86666132049682</v>
+        <v>10.8666613204968</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412529</v>
       </c>
       <c r="T43" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314496</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614252</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642828</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350214</v>
       </c>
       <c r="I44" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232704</v>
       </c>
       <c r="J44" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609566</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701271</v>
       </c>
       <c r="L44" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611564</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780445</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337898</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427414</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815598</v>
+        <v>77.4767556781559</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563499</v>
       </c>
       <c r="R44" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319241</v>
       </c>
       <c r="S44" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194611</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467649</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514262</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097956</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634079</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736383</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194082</v>
       </c>
       <c r="K45" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309712</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588785</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061792</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933932</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483288</v>
+        <v>68.5869854348328</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690122</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149601</v>
       </c>
       <c r="R45" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654679</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429751</v>
       </c>
       <c r="T45" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067991</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459182</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459459</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148725186301232</v>
+        <v>2.14872518630123</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519902</v>
       </c>
       <c r="J46" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607837</v>
       </c>
       <c r="K46" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608353</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630909</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653586</v>
       </c>
       <c r="N46" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428282</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905062</v>
       </c>
       <c r="P46" t="n">
-        <v>29.22969312735334</v>
+        <v>29.2296931273533</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844644</v>
       </c>
       <c r="R46" t="n">
-        <v>10.86666132049682</v>
+        <v>10.8666613204968</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412529</v>
       </c>
       <c r="T46" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314496</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614252</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.4537969567199</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054801</v>
       </c>
       <c r="L11" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785866</v>
       </c>
       <c r="M11" t="n">
-        <v>491.8157444113278</v>
+        <v>491.8157444113276</v>
       </c>
       <c r="N11" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867282</v>
       </c>
       <c r="O11" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757226</v>
       </c>
       <c r="P11" t="n">
-        <v>270.9518165092118</v>
+        <v>307.9382672499268</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>81.46734621600582</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>88.09805462780561</v>
       </c>
       <c r="K12" t="n">
-        <v>278.3580710427827</v>
+        <v>278.3580710427826</v>
       </c>
       <c r="L12" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M12" t="n">
-        <v>182.9187478921529</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482505</v>
       </c>
       <c r="O12" t="n">
-        <v>464.7485518834702</v>
+        <v>464.74855188347</v>
       </c>
       <c r="P12" t="n">
-        <v>360.1944957546763</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.1628128732074</v>
+        <v>88.20404466825374</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466112</v>
+        <v>46.62700578466118</v>
       </c>
       <c r="K13" t="n">
         <v>151.0191897391236</v>
@@ -35577,7 +35577,7 @@
         <v>246.0664065699379</v>
       </c>
       <c r="N13" t="n">
-        <v>245.5987790526329</v>
+        <v>245.598779052633</v>
       </c>
       <c r="O13" t="n">
         <v>222.6152580511273</v>
@@ -35586,7 +35586,7 @@
         <v>181.8313544842261</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415033</v>
+        <v>71.08228883415039</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>118.4537969567199</v>
       </c>
       <c r="K14" t="n">
-        <v>238.9998570709642</v>
+        <v>311.1004426054801</v>
       </c>
       <c r="L14" t="n">
-        <v>436.4223628785867</v>
+        <v>245.8679803873515</v>
       </c>
       <c r="M14" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113276</v>
       </c>
       <c r="N14" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867282</v>
       </c>
       <c r="O14" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757226</v>
       </c>
       <c r="P14" t="n">
-        <v>307.9382672499269</v>
+        <v>307.9382672499268</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.5679317505209</v>
+        <v>153.5679317505208</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780561</v>
       </c>
       <c r="K15" t="n">
-        <v>278.3580710427827</v>
+        <v>278.3580710427826</v>
       </c>
       <c r="L15" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M15" t="n">
-        <v>562.973957223978</v>
+        <v>94.82069326434743</v>
       </c>
       <c r="N15" t="n">
-        <v>123.2511437886194</v>
+        <v>591.4044077482505</v>
       </c>
       <c r="O15" t="n">
-        <v>464.7485518834701</v>
+        <v>464.74855188347</v>
       </c>
       <c r="P15" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546762</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.1628128732074</v>
+        <v>196.1628128732073</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466125</v>
+        <v>46.62700578466118</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0191897391237</v>
+        <v>151.0191897391236</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703756</v>
+        <v>226.5511725703755</v>
       </c>
       <c r="M16" t="n">
-        <v>246.066406569938</v>
+        <v>246.0664065699379</v>
       </c>
       <c r="N16" t="n">
-        <v>245.5987790526331</v>
+        <v>245.598779052633</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511275</v>
+        <v>222.6152580511273</v>
       </c>
       <c r="P16" t="n">
-        <v>181.8313544842262</v>
+        <v>181.8313544842261</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415046</v>
+        <v>71.08228883415039</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>118.4537969567199</v>
       </c>
       <c r="K17" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054801</v>
       </c>
       <c r="L17" t="n">
-        <v>245.8679803873508</v>
+        <v>436.4223628785866</v>
       </c>
       <c r="M17" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113276</v>
       </c>
       <c r="N17" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867282</v>
       </c>
       <c r="O17" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757226</v>
       </c>
       <c r="P17" t="n">
-        <v>307.9382672499269</v>
+        <v>117.3838847586917</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.5679317505209</v>
+        <v>153.5679317505208</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780561</v>
       </c>
       <c r="K18" t="n">
-        <v>278.3580710427827</v>
+        <v>278.3580710427826</v>
       </c>
       <c r="L18" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M18" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N18" t="n">
-        <v>123.2511437886204</v>
+        <v>483.4456395432964</v>
       </c>
       <c r="O18" t="n">
-        <v>464.7485518834701</v>
+        <v>464.74855188347</v>
       </c>
       <c r="P18" t="n">
-        <v>360.1944957546763</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1628128732074</v>
+        <v>196.1628128732073</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057182</v>
       </c>
       <c r="L19" t="n">
-        <v>137.5540402318238</v>
+        <v>137.5540402318237</v>
       </c>
       <c r="M19" t="n">
         <v>157.0692742313861</v>
@@ -36054,10 +36054,10 @@
         <v>156.6016467140812</v>
       </c>
       <c r="O19" t="n">
-        <v>133.6181257125756</v>
+        <v>133.6181257125755</v>
       </c>
       <c r="P19" t="n">
-        <v>92.83422214567435</v>
+        <v>92.8342221456743</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>81.46734621600585</v>
       </c>
       <c r="K20" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054801</v>
       </c>
       <c r="L20" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785866</v>
       </c>
       <c r="M20" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113276</v>
       </c>
       <c r="N20" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867282</v>
       </c>
       <c r="O20" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757226</v>
       </c>
       <c r="P20" t="n">
-        <v>307.9382672499269</v>
+        <v>307.9382672499268</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.4673462160049</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780561</v>
       </c>
       <c r="K21" t="n">
-        <v>278.3580710427827</v>
+        <v>278.3580710427826</v>
       </c>
       <c r="L21" t="n">
-        <v>432.1084713292371</v>
+        <v>428.7037592530776</v>
       </c>
       <c r="M21" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N21" t="n">
-        <v>123.2511437886204</v>
+        <v>591.4044077482505</v>
       </c>
       <c r="O21" t="n">
-        <v>464.7485518834701</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546762</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.1628128732074</v>
+        <v>196.1628128732073</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057182</v>
       </c>
       <c r="L22" t="n">
-        <v>137.5540402318238</v>
+        <v>137.5540402318237</v>
       </c>
       <c r="M22" t="n">
         <v>157.0692742313861</v>
@@ -36291,10 +36291,10 @@
         <v>156.6016467140812</v>
       </c>
       <c r="O22" t="n">
-        <v>133.6181257125756</v>
+        <v>133.6181257125755</v>
       </c>
       <c r="P22" t="n">
-        <v>92.83422214567435</v>
+        <v>92.8342221456743</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>118.4537969567199</v>
       </c>
       <c r="K23" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054801</v>
       </c>
       <c r="L23" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785866</v>
       </c>
       <c r="M23" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113276</v>
       </c>
       <c r="N23" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867282</v>
       </c>
       <c r="O23" t="n">
-        <v>398.8632430757227</v>
+        <v>208.3088605844865</v>
       </c>
       <c r="P23" t="n">
-        <v>270.9518165092118</v>
+        <v>307.9382672499268</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>153.5679317505208</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780561</v>
       </c>
       <c r="K24" t="n">
-        <v>278.3580710427827</v>
+        <v>278.3580710427826</v>
       </c>
       <c r="L24" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M24" t="n">
-        <v>562.973957223978</v>
+        <v>94.82069326434697</v>
       </c>
       <c r="N24" t="n">
-        <v>123.2511437886194</v>
+        <v>591.4044077482505</v>
       </c>
       <c r="O24" t="n">
-        <v>464.7485518834701</v>
+        <v>464.74855188347</v>
       </c>
       <c r="P24" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546762</v>
       </c>
       <c r="Q24" t="n">
-        <v>196.1628128732074</v>
+        <v>196.1628128732073</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057182</v>
       </c>
       <c r="L25" t="n">
-        <v>137.5540402318238</v>
+        <v>137.5540402318237</v>
       </c>
       <c r="M25" t="n">
         <v>157.0692742313861</v>
@@ -36528,10 +36528,10 @@
         <v>156.6016467140812</v>
       </c>
       <c r="O25" t="n">
-        <v>133.6181257125756</v>
+        <v>133.6181257125755</v>
       </c>
       <c r="P25" t="n">
-        <v>92.83422214567435</v>
+        <v>92.8342221456743</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>220.9529482126762</v>
       </c>
       <c r="K26" t="n">
-        <v>311.2490130156827</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L26" t="n">
-        <v>538.921514134543</v>
+        <v>538.9215141345429</v>
       </c>
       <c r="M26" t="n">
-        <v>594.3148956672841</v>
+        <v>594.314895667284</v>
       </c>
       <c r="N26" t="n">
-        <v>580.7873033426846</v>
+        <v>580.7873033426845</v>
       </c>
       <c r="O26" t="n">
-        <v>501.362394331679</v>
+        <v>501.3623943316788</v>
       </c>
       <c r="P26" t="n">
-        <v>410.4374185058832</v>
+        <v>410.4374185058831</v>
       </c>
       <c r="Q26" t="n">
-        <v>256.0670830064772</v>
+        <v>153.7165021607231</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004356</v>
+        <v>46.61117633004352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780561</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>278.3580710427826</v>
       </c>
       <c r="L27" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M27" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886199</v>
       </c>
       <c r="O27" t="n">
-        <v>464.7485518834701</v>
+        <v>464.74855188347</v>
       </c>
       <c r="P27" t="n">
-        <v>170.3993028378283</v>
+        <v>360.1944957546762</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.1628128732074</v>
+        <v>196.1628128732073</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206569</v>
+        <v>60.12902470206566</v>
       </c>
       <c r="K28" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L28" t="n">
-        <v>240.0531914877801</v>
+        <v>240.05319148778</v>
       </c>
       <c r="M28" t="n">
         <v>259.5684254873424</v>
@@ -36765,13 +36765,13 @@
         <v>259.1007979700375</v>
       </c>
       <c r="O28" t="n">
-        <v>236.1172769685319</v>
+        <v>236.1172769685318</v>
       </c>
       <c r="P28" t="n">
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155487</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.9529482126762</v>
+        <v>220.9529482126763</v>
       </c>
       <c r="K29" t="n">
         <v>413.5995938614365</v>
@@ -36838,7 +36838,7 @@
         <v>538.921514134543</v>
       </c>
       <c r="M29" t="n">
-        <v>491.9643148215293</v>
+        <v>594.3148956672841</v>
       </c>
       <c r="N29" t="n">
         <v>580.7873033426846</v>
@@ -36850,10 +36850,10 @@
         <v>410.4374185058832</v>
       </c>
       <c r="Q29" t="n">
-        <v>256.0670830064772</v>
+        <v>153.7165021607231</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004355</v>
+        <v>46.61117633004359</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780564</v>
       </c>
       <c r="K30" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L30" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M30" t="n">
-        <v>94.82069326434709</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886199</v>
       </c>
       <c r="O30" t="n">
         <v>464.7485518834701</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206568</v>
+        <v>60.12902470206572</v>
       </c>
       <c r="K31" t="n">
-        <v>164.5212086565281</v>
+        <v>164.5212086565282</v>
       </c>
       <c r="L31" t="n">
         <v>240.0531914877801</v>
@@ -37005,10 +37005,10 @@
         <v>236.1172769685319</v>
       </c>
       <c r="P31" t="n">
-        <v>195.3333734016306</v>
+        <v>195.3333734016307</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.58430775155489</v>
+        <v>84.58430775155493</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9529482126763</v>
+        <v>118.6023673669226</v>
       </c>
       <c r="K32" t="n">
-        <v>413.5995938614366</v>
+        <v>413.5995938614364</v>
       </c>
       <c r="L32" t="n">
-        <v>538.921514134543</v>
+        <v>538.9215141345429</v>
       </c>
       <c r="M32" t="n">
-        <v>594.3148956672841</v>
+        <v>594.314895667284</v>
       </c>
       <c r="N32" t="n">
-        <v>478.4367224969297</v>
+        <v>580.7873033426845</v>
       </c>
       <c r="O32" t="n">
-        <v>501.3623943316791</v>
+        <v>501.3623943316788</v>
       </c>
       <c r="P32" t="n">
-        <v>410.4374185058833</v>
+        <v>410.4374185058831</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.0670830064773</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004362</v>
+        <v>46.61117633004351</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780561</v>
       </c>
       <c r="K33" t="n">
-        <v>278.3580710427827</v>
+        <v>278.3580710427826</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M33" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886199</v>
       </c>
       <c r="O33" t="n">
-        <v>428.7037592530764</v>
+        <v>464.74855188347</v>
       </c>
       <c r="P33" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546762</v>
       </c>
       <c r="Q33" t="n">
-        <v>196.1628128732074</v>
+        <v>196.1628128732073</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206575</v>
+        <v>60.12902470206565</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L34" t="n">
-        <v>240.0531914877801</v>
+        <v>240.05319148778</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873425</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N34" t="n">
-        <v>259.1007979700375</v>
+        <v>259.1007979700374</v>
       </c>
       <c r="O34" t="n">
-        <v>236.1172769685319</v>
+        <v>236.1172769685318</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016294</v>
+        <v>195.3333734016306</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155496</v>
+        <v>84.58430775155486</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>118.4537969567199</v>
       </c>
       <c r="K35" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054801</v>
       </c>
       <c r="L35" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785866</v>
       </c>
       <c r="M35" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113276</v>
       </c>
       <c r="N35" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867282</v>
       </c>
       <c r="O35" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757226</v>
       </c>
       <c r="P35" t="n">
-        <v>307.9382672499269</v>
+        <v>307.9382672499268</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.5679317505209</v>
+        <v>153.5679317505208</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>88.09805462780561</v>
       </c>
       <c r="K36" t="n">
-        <v>94.46567458416403</v>
+        <v>278.3580710427826</v>
       </c>
       <c r="L36" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M36" t="n">
-        <v>562.973957223978</v>
+        <v>94.82069326434697</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482505</v>
       </c>
       <c r="O36" t="n">
-        <v>464.7485518834701</v>
+        <v>464.74855188347</v>
       </c>
       <c r="P36" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546762</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>196.1628128732073</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057182</v>
       </c>
       <c r="L37" t="n">
-        <v>137.5540402318238</v>
+        <v>137.5540402318237</v>
       </c>
       <c r="M37" t="n">
         <v>157.0692742313861</v>
@@ -37476,10 +37476,10 @@
         <v>156.6016467140812</v>
       </c>
       <c r="O37" t="n">
-        <v>133.6181257125756</v>
+        <v>133.6181257125755</v>
       </c>
       <c r="P37" t="n">
-        <v>92.83422214567435</v>
+        <v>92.8342221456743</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>118.4537969567199</v>
       </c>
       <c r="K38" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054801</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785866</v>
       </c>
       <c r="M38" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113276</v>
       </c>
       <c r="N38" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867282</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757226</v>
       </c>
       <c r="P38" t="n">
-        <v>307.9382672499269</v>
+        <v>307.9382672499258</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.5679317505197</v>
+        <v>153.5679317505208</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>432.1084713292371</v>
+        <v>330.4113330401943</v>
       </c>
       <c r="M39" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N39" t="n">
-        <v>123.251143788619</v>
+        <v>591.4044077482505</v>
       </c>
       <c r="O39" t="n">
-        <v>464.7485518834701</v>
+        <v>464.74855188347</v>
       </c>
       <c r="P39" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546762</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.1628128732074</v>
+        <v>196.1628128732073</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057182</v>
       </c>
       <c r="L40" t="n">
-        <v>137.5540402318238</v>
+        <v>137.5540402318237</v>
       </c>
       <c r="M40" t="n">
         <v>157.0692742313861</v>
@@ -37713,10 +37713,10 @@
         <v>156.6016467140812</v>
       </c>
       <c r="O40" t="n">
-        <v>133.6181257125756</v>
+        <v>133.6181257125755</v>
       </c>
       <c r="P40" t="n">
-        <v>92.83422214567435</v>
+        <v>92.8342221456743</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>118.4537969567199</v>
       </c>
       <c r="K41" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054801</v>
       </c>
       <c r="L41" t="n">
         <v>436.4223628785867</v>
       </c>
       <c r="M41" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113276</v>
       </c>
       <c r="N41" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867282</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757226</v>
       </c>
       <c r="P41" t="n">
-        <v>307.9382672499269</v>
+        <v>307.9382672499268</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.5679317505209</v>
+        <v>153.5679317505208</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780561</v>
       </c>
       <c r="K42" t="n">
-        <v>278.3580710427827</v>
+        <v>278.3580710427826</v>
       </c>
       <c r="L42" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M42" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N42" t="n">
-        <v>123.251143788619</v>
+        <v>123.2511437886194</v>
       </c>
       <c r="O42" t="n">
-        <v>464.7485518834701</v>
+        <v>464.74855188347</v>
       </c>
       <c r="P42" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546762</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.1628128732074</v>
+        <v>196.1628128732073</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057182</v>
       </c>
       <c r="L43" t="n">
-        <v>137.5540402318238</v>
+        <v>137.5540402318237</v>
       </c>
       <c r="M43" t="n">
         <v>157.0692742313861</v>
@@ -37950,10 +37950,10 @@
         <v>156.6016467140812</v>
       </c>
       <c r="O43" t="n">
-        <v>133.6181257125756</v>
+        <v>133.6181257125755</v>
       </c>
       <c r="P43" t="n">
-        <v>92.83422214567435</v>
+        <v>92.8342221456743</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>118.4537969567199</v>
       </c>
       <c r="K44" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054801</v>
       </c>
       <c r="L44" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785866</v>
       </c>
       <c r="M44" t="n">
-        <v>491.815744411328</v>
+        <v>491.8157444113276</v>
       </c>
       <c r="N44" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867282</v>
       </c>
       <c r="O44" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757226</v>
       </c>
       <c r="P44" t="n">
-        <v>307.9382672499269</v>
+        <v>307.9382672499268</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.5679317505209</v>
+        <v>153.5679317505208</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780561</v>
       </c>
       <c r="K45" t="n">
-        <v>278.3580710427827</v>
+        <v>278.3580710427826</v>
       </c>
       <c r="L45" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M45" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N45" t="n">
-        <v>123.251143788619</v>
+        <v>123.2511437886194</v>
       </c>
       <c r="O45" t="n">
-        <v>464.7485518834701</v>
+        <v>464.74855188347</v>
       </c>
       <c r="P45" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546762</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.1628128732074</v>
+        <v>196.1628128732073</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057182</v>
       </c>
       <c r="L46" t="n">
-        <v>137.5540402318238</v>
+        <v>137.5540402318237</v>
       </c>
       <c r="M46" t="n">
         <v>157.0692742313861</v>
@@ -38187,10 +38187,10 @@
         <v>156.6016467140812</v>
       </c>
       <c r="O46" t="n">
-        <v>133.6181257125756</v>
+        <v>133.6181257125755</v>
       </c>
       <c r="P46" t="n">
-        <v>92.83422214567435</v>
+        <v>92.8342221456743</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
